--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="165">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -57,6 +57,9 @@
     <t xml:space="preserve">Loss function</t>
   </si>
   <si>
+    <t xml:space="preserve">NO FUCKING CLUE!!</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trainable embedding</t>
   </si>
   <si>
@@ -147,61 +150,13 @@
     <t xml:space="preserve">units: Positive integer, dimensionality of the output space.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">activation: Activation function to use (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">activations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
+    <t xml:space="preserve">activation: Activation function to use (see activations).</t>
   </si>
   <si>
     <t xml:space="preserve">Default: hyperbolic tangent (tanh). If you pass None, no activation is applied (ie. "linear" activation: a(x) = x).</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">recurrent_activation: Activation function to use for the recurrent step (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">activations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
+    <t xml:space="preserve">recurrent_activation: Activation function to use for the recurrent step (see activations).</t>
   </si>
   <si>
     <t xml:space="preserve">Default: hard sigmoid (hard_sigmoid). If you pass None, no activation is applied (ie. "linear" activation: a(x) = x).</t>
@@ -210,274 +165,34 @@
     <t xml:space="preserve">use_bias: Boolean, whether the layer uses a bias vector.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">kernel_initializer: Initializer for the kernel weights matrix, used for the linear transformation of the inputs (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">initializers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">recurrent_initializer: Initializer for the recurrent_kernel weights matrix, used for the linear transformation of the recurrent state (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">initializers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">bias_initializer: Initializer for the bias vector (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">initializers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">kernel_regularizer: Regularizer function applied to the kernel weights matrix (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">regularizer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">recurrent_regularizer: Regularizer function applied to the recurrent_kernel weights matrix (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">regularizer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">bias_regularizer: Regularizer function applied to the bias vector (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">regularizer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">activity_regularizer: Regularizer function applied to the output of the layer (its "activation"). (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">regularizer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">kernel_constraint: Constraint function applied to the kernel weights matrix (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">constraints</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">recurrent_constraint: Constraint function applied to the recurrent_kernel weights matrix (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">constraints</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">bias_constraint: Constraint function applied to the bias vector (see </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">constraints</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">).</t>
-    </r>
+    <t xml:space="preserve">kernel_initializer: Initializer for the kernel weights matrix, used for the linear transformation of the inputs (see initializers).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurrent_initializer: Initializer for the recurrent_kernel weights matrix, used for the linear transformation of the recurrent state (see initializers).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bias_initializer: Initializer for the bias vector (see initializers).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel_regularizer: Regularizer function applied to the kernel weights matrix (see regularizer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurrent_regularizer: Regularizer function applied to the recurrent_kernel weights matrix (see regularizer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bias_regularizer: Regularizer function applied to the bias vector (see regularizer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activity_regularizer: Regularizer function applied to the output of the layer (its "activation"). (see regularizer).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kernel_constraint: Constraint function applied to the kernel weights matrix (see constraints).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recurrent_constraint: Constraint function applied to the recurrent_kernel weights matrix (see constraints).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bias_constraint: Constraint function applied to the bias vector (see constraints).</t>
   </si>
   <si>
     <t xml:space="preserve">dropout: Float between 0 and 1. Fraction of the units to drop for the linear transformation of the inputs.</t>
@@ -711,58 +426,10 @@
     <t xml:space="preserve">compile(self, optimizer, loss=None, metrics=None, loss_weights=None, sample_weight_mode=None, weighted_metrics=None, target_tensors=None)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">optimizer: String (name of optimizer) or optimizer instance. See </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">optimizers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">loss: String (name of objective function) or objective function. See </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">losses</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">. If the model has multiple outputs, you can use a different loss on each output by passing a dictionary or a list of losses. The loss value that will be minimized by the model will then be the sum of all individual losses.</t>
-    </r>
+    <t xml:space="preserve">optimizer: String (name of optimizer) or optimizer instance. See optimizers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss: String (name of objective function) or objective function. See losses. If the model has multiple outputs, you can use a different loss on each output by passing a dictionary or a list of losses. The loss value that will be minimized by the model will then be the sum of all individual losses.</t>
   </si>
   <si>
     <t xml:space="preserve">metrics: List of metrics to be evaluated by the model during training and testing. Typically you will use metrics=['accuracy']. To specify different metrics for different outputs of a multi-output model, you could also pass a dictionary, such as metrics={'output_a': 'accuracy'}.</t>
@@ -804,31 +471,7 @@
     <t xml:space="preserve">verbose: Integer. 0, 1, or 2. Verbosity mode. 0 = silent, 1 = progress bar, 2 = one line per epoch.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">callbacks: List of keras.callbacks.Callback instances. List of callbacks to apply during training. See </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">callbacks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
+    <t xml:space="preserve">callbacks: List of keras.callbacks.Callback instances. List of callbacks to apply during training. See callbacks.</t>
   </si>
   <si>
     <t xml:space="preserve">validation_split: Float between 0 and 1. Fraction of the training data to be used as validation data. The model will set apart this fraction of the training data, will not train on it, and will evaluate the loss and any model metrics on this data at the end of each epoch. The validation data is selected from the last samples in the x and y data provided, before shuffling.</t>
@@ -884,11 +527,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -909,20 +553,17 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
@@ -931,6 +572,7 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -984,7 +626,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -996,6 +638,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,11 +650,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1035,9 +677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>762840</xdr:colOff>
+      <xdr:colOff>762480</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1050,8 +692,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3305160" y="189720"/>
-          <a:ext cx="3147120" cy="1490400"/>
+          <a:off x="3254400" y="189720"/>
+          <a:ext cx="3108600" cy="1490040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,9 +714,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>758880</xdr:colOff>
+      <xdr:colOff>758520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1087,8 +729,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="200160"/>
-          <a:ext cx="4010040" cy="230040"/>
+          <a:off x="7200720" y="200160"/>
+          <a:ext cx="3958920" cy="229680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,9 +751,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>750240</xdr:colOff>
+      <xdr:colOff>749880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,8 +766,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7351200" y="1989720"/>
-          <a:ext cx="3965400" cy="226800"/>
+          <a:off x="7236720" y="1989720"/>
+          <a:ext cx="3914280" cy="226440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1146,9 +788,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>750600</xdr:colOff>
+      <xdr:colOff>750240</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1161,8 +803,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295800" y="2806920"/>
-          <a:ext cx="5582520" cy="576720"/>
+          <a:off x="3245040" y="2806920"/>
+          <a:ext cx="5506200" cy="576360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,9 +825,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>366120</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1198,8 +840,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12245400" y="253800"/>
-          <a:ext cx="1938240" cy="591120"/>
+          <a:off x="12054960" y="253800"/>
+          <a:ext cx="1912320" cy="590760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1220,9 +862,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
+      <xdr:colOff>392760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>151560</xdr:rowOff>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1235,8 +877,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12254400" y="852840"/>
-          <a:ext cx="1956240" cy="761760"/>
+          <a:off x="12063960" y="852840"/>
+          <a:ext cx="1930320" cy="761400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,9 +899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>536040</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1272,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3286800" y="6206040"/>
-          <a:ext cx="2125800" cy="1085400"/>
+          <a:off x="3236040" y="6206040"/>
+          <a:ext cx="2100240" cy="1085040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,9 +936,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>732600</xdr:colOff>
+      <xdr:colOff>732240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1309,8 +951,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295800" y="7485480"/>
-          <a:ext cx="2313360" cy="2085480"/>
+          <a:off x="3245040" y="7485480"/>
+          <a:ext cx="2287800" cy="2085120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,9 +973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>741240</xdr:colOff>
+      <xdr:colOff>740880</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1346,8 +988,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251160" y="9811080"/>
-          <a:ext cx="3992400" cy="343440"/>
+          <a:off x="3200400" y="9811080"/>
+          <a:ext cx="3941280" cy="343080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,9 +1010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>527400</xdr:colOff>
+      <xdr:colOff>527040</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1383,8 +1025,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3287160" y="3933360"/>
-          <a:ext cx="2116800" cy="834840"/>
+          <a:off x="3236400" y="3933360"/>
+          <a:ext cx="2091240" cy="834480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,9 +1047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>723960</xdr:colOff>
+      <xdr:colOff>723600</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1420,8 +1062,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8440560" y="3917160"/>
-          <a:ext cx="3662280" cy="887760"/>
+          <a:off x="8313840" y="3917160"/>
+          <a:ext cx="3611160" cy="887400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1442,9 +1084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>536040</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1457,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4090680" y="10908000"/>
-          <a:ext cx="2134800" cy="766080"/>
+          <a:off x="4027320" y="10908000"/>
+          <a:ext cx="2108880" cy="765720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,13 +1122,13 @@
   </sheetPr>
   <dimension ref="B2:O70"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K66" activeCellId="0" sqref="K66"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,32 +1186,37 @@
       <c r="B16" s="0" t="s">
         <v>10</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="1" t="b">
+        <v>12</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="b">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1577,7 +1224,7 @@
         <v>4</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J26" s="2"/>
     </row>
@@ -1595,45 +1242,45 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="I30" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D33" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,10 +1290,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,13 +1303,13 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,45 +1322,45 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D66" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D69" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D70" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1738,598 +1385,598 @@
   </sheetPr>
   <dimension ref="B2:C116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>41</v>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
-        <v>43</v>
+      <c r="B10" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
-        <v>46</v>
+      <c r="B13" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>47</v>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3" t="s">
-        <v>48</v>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3" t="s">
-        <v>49</v>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
-        <v>50</v>
+      <c r="B17" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>51</v>
+      <c r="B18" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3" t="s">
-        <v>52</v>
+      <c r="B19" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
-        <v>53</v>
+      <c r="B20" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
-        <v>54</v>
+      <c r="B21" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="s">
-        <v>55</v>
+      <c r="B22" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="5" t="s">
-        <v>39</v>
+      <c r="B35" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="6"/>
+      <c r="B95" s="7"/>
       <c r="C95" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="6"/>
+      <c r="B96" s="7"/>
       <c r="C96" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="6"/>
+      <c r="B97" s="7"/>
       <c r="C97" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="6"/>
+      <c r="B98" s="7"/>
       <c r="C98" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="6"/>
+      <c r="B99" s="7"/>
       <c r="C99" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="6"/>
+      <c r="B100" s="7"/>
       <c r="C100" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="6"/>
+      <c r="B101" s="7"/>
       <c r="C101" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="6"/>
+      <c r="B102" s="7"/>
       <c r="C102" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="6"/>
+      <c r="B103" s="7"/>
       <c r="C103" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="6"/>
+      <c r="B104" s="7"/>
       <c r="C104" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="6"/>
+      <c r="B105" s="7"/>
       <c r="C105" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="6"/>
+      <c r="B106" s="7"/>
       <c r="C106" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="6"/>
+      <c r="B107" s="7"/>
       <c r="C107" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="6"/>
+      <c r="B108" s="7"/>
       <c r="C108" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="6"/>
+      <c r="B109" s="7"/>
       <c r="C109" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="6"/>
+      <c r="B110" s="7"/>
       <c r="C110" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="6"/>
+      <c r="B111" s="7"/>
       <c r="C111" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="6"/>
+      <c r="B112" s="7"/>
       <c r="C112" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="6"/>
+      <c r="B113" s="7"/>
       <c r="C113" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="6"/>
+      <c r="B114" s="7"/>
       <c r="C114" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="activations"/>
-    <hyperlink ref="B10" r:id="rId2" display="activations"/>
-    <hyperlink ref="B13" r:id="rId3" display="initializers"/>
-    <hyperlink ref="B14" r:id="rId4" display="initializers"/>
-    <hyperlink ref="B15" r:id="rId5" display="initializers"/>
-    <hyperlink ref="B16" r:id="rId6" display="regularizer"/>
-    <hyperlink ref="B17" r:id="rId7" display="regularizer"/>
-    <hyperlink ref="B18" r:id="rId8" display="regularizer"/>
-    <hyperlink ref="B19" r:id="rId9" display="regularizer"/>
-    <hyperlink ref="B20" r:id="rId10" display="constraints"/>
-    <hyperlink ref="B21" r:id="rId11" display="constraints"/>
-    <hyperlink ref="B22" r:id="rId12" display="constraints"/>
+    <hyperlink ref="B8" r:id="rId1" display="activation: Activation function to use (see activations)."/>
+    <hyperlink ref="B10" r:id="rId2" display="recurrent_activation: Activation function to use for the recurrent step (see activations)."/>
+    <hyperlink ref="B13" r:id="rId3" display="kernel_initializer: Initializer for the kernel weights matrix, used for the linear transformation of the inputs (see initializers)."/>
+    <hyperlink ref="B14" r:id="rId4" display="recurrent_initializer: Initializer for the recurrent_kernel weights matrix, used for the linear transformation of the recurrent state (see initializers)."/>
+    <hyperlink ref="B15" r:id="rId5" display="bias_initializer: Initializer for the bias vector (see initializers)."/>
+    <hyperlink ref="B16" r:id="rId6" display="kernel_regularizer: Regularizer function applied to the kernel weights matrix (see regularizer)."/>
+    <hyperlink ref="B17" r:id="rId7" display="recurrent_regularizer: Regularizer function applied to the recurrent_kernel weights matrix (see regularizer)."/>
+    <hyperlink ref="B18" r:id="rId8" display="bias_regularizer: Regularizer function applied to the bias vector (see regularizer)."/>
+    <hyperlink ref="B19" r:id="rId9" display="activity_regularizer: Regularizer function applied to the output of the layer (its &quot;activation&quot;). (see regularizer)."/>
+    <hyperlink ref="B20" r:id="rId10" display="kernel_constraint: Constraint function applied to the kernel weights matrix (see constraints)."/>
+    <hyperlink ref="B21" r:id="rId11" display="recurrent_constraint: Constraint function applied to the recurrent_kernel weights matrix (see constraints)."/>
+    <hyperlink ref="B22" r:id="rId12" display="bias_constraint: Constraint function applied to the bias vector (see constraints)."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2350,157 +1997,157 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>133</v>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3" t="s">
-        <v>134</v>
+      <c r="B8" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
-        <v>148</v>
+      <c r="B26" s="5" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="7" t="s">
-        <v>158</v>
+      <c r="B38" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2508,43 +2155,43 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" display="optimizers"/>
-    <hyperlink ref="B8" r:id="rId2" display="losses"/>
-    <hyperlink ref="B26" r:id="rId3" display="callbacks"/>
+    <hyperlink ref="B7" r:id="rId1" display="optimizer: String (name of optimizer) or optimizer instance. See optimizers."/>
+    <hyperlink ref="B8" r:id="rId2" display="loss: String (name of objective function) or objective function. See losses. If the model has multiple outputs, you can use a different loss on each output by passing a dictionary or a list of losses. The loss value that will be minimized by the model will then be the sum of all individual losses."/>
+    <hyperlink ref="B26" r:id="rId3" display="callbacks: List of keras.callbacks.Callback instances. List of callbacks to apply during training. See callbacks."/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="170">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -36,15 +36,24 @@
     <t xml:space="preserve">SGD</t>
   </si>
   <si>
+    <t xml:space="preserve">clipnorm</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lample et al</t>
   </si>
   <si>
+    <t xml:space="preserve">vs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Keras</t>
   </si>
   <si>
     <t xml:space="preserve">Zhilin Yang</t>
   </si>
   <si>
+    <t xml:space="preserve">clipvalue</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://cs231n.github.io/neural-networks-3/#ada</t>
   </si>
   <si>
@@ -58,6 +67,12 @@
   </si>
   <si>
     <t xml:space="preserve">NO FUCKING CLUE!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorical_crossentropy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keras_contrib</t>
   </si>
   <si>
     <t xml:space="preserve">Trainable embedding</t>
@@ -617,8 +632,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -671,15 +690,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>762480</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:colOff>569160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -692,8 +711,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3254400" y="189720"/>
-          <a:ext cx="3108600" cy="1490040"/>
+          <a:off x="2412720" y="171720"/>
+          <a:ext cx="2356920" cy="1399680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,13 +729,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>758520</xdr:colOff>
+      <xdr:colOff>582120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -729,8 +748,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200720" y="200160"/>
-          <a:ext cx="3958920" cy="229680"/>
+          <a:off x="5400360" y="206640"/>
+          <a:ext cx="2982600" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,10 +769,10 @@
       <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>749880</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -766,45 +785,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7236720" y="1989720"/>
-          <a:ext cx="3914280" cy="226440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>750240</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3245040" y="2806920"/>
-          <a:ext cx="5506200" cy="576360"/>
+          <a:off x="5436360" y="1989720"/>
+          <a:ext cx="3113640" cy="225720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -825,23 +807,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>365760</xdr:colOff>
+      <xdr:colOff>365040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 6" descr=""/>
+        <xdr:cNvPr id="3" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12054960" y="253800"/>
-          <a:ext cx="1912320" cy="590760"/>
+          <a:off x="9054720" y="253800"/>
+          <a:ext cx="1511280" cy="590040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,13 +844,50 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>392760</xdr:colOff>
+      <xdr:colOff>392040</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 7" descr=""/>
+        <xdr:cNvPr id="4" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9063720" y="852840"/>
+          <a:ext cx="1529280" cy="760680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>136080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -877,8 +896,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12063960" y="852840"/>
-          <a:ext cx="1930320" cy="761400"/>
+          <a:off x="3600360" y="2442600"/>
+          <a:ext cx="3736440" cy="385560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>44640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>149400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2444760" y="3132000"/>
+          <a:ext cx="4305240" cy="575640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,28 +950,28 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>35640</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>28800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:colOff>534960</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 8" descr=""/>
+        <xdr:cNvPr id="7" name="Image 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3236040" y="6206040"/>
-          <a:ext cx="2100240" cy="1085040"/>
+          <a:off x="2435760" y="6531120"/>
+          <a:ext cx="1699560" cy="1084320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,28 +987,28 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>44640</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>7920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>732240</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 9" descr=""/>
+        <xdr:cNvPr id="8" name="Image 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3245040" y="7485480"/>
-          <a:ext cx="2287800" cy="2085120"/>
+          <a:off x="2444760" y="7810560"/>
+          <a:ext cx="1887120" cy="2084400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -968,28 +1024,28 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>740880</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>140400</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>74880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 5" descr=""/>
+        <xdr:cNvPr id="9" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3200400" y="9811080"/>
-          <a:ext cx="3941280" cy="343080"/>
+          <a:off x="2400120" y="10136160"/>
+          <a:ext cx="3140640" cy="342360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1005,28 +1061,28 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>36000</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>32040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>527040</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:colOff>526320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 10" descr=""/>
+        <xdr:cNvPr id="10" name="Image 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3236400" y="3933360"/>
-          <a:ext cx="2091240" cy="834480"/>
+          <a:off x="2436120" y="4258440"/>
+          <a:ext cx="1690560" cy="833760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1042,28 +1098,28 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>312840</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>723600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122760</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 11" descr=""/>
+        <xdr:cNvPr id="11" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8313840" y="3917160"/>
-          <a:ext cx="3611160" cy="887400"/>
+          <a:off x="6313320" y="4242240"/>
+          <a:ext cx="2810520" cy="886680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,28 +1135,65 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:colOff>534960</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 12" descr=""/>
+        <xdr:cNvPr id="12" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4027320" y="10908000"/>
-          <a:ext cx="2108880" cy="765720"/>
+          <a:off x="3027240" y="11233080"/>
+          <a:ext cx="1708200" cy="765000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>107280</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>36000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12108600" y="198360"/>
+          <a:ext cx="4729320" cy="3182040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1120,252 +1213,269 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:O70"/>
+  <dimension ref="B2:T72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="O2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="T2" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O3" s="0" t="s">
-        <v>4</v>
+      <c r="O3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>6</v>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
-        <v>7</v>
+      <c r="D12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I13" s="0" t="s">
-        <v>6</v>
+      <c r="I13" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="0" t="n">
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>0.001</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="0" t="n">
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="1" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1" t="n">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="n">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="0" t="n">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I30" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D33" s="0" t="s">
-        <v>19</v>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="0" t="n">
+      <c r="E37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E37" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="E39" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D65" s="0" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="D41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H65" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="D49" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D50" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K65" s="0" t="s">
+      <c r="D63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D66" s="0" t="s">
+      <c r="D67" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="F67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="0" t="s">
-        <v>36</v>
+      <c r="D68" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="0" t="s">
-        <v>37</v>
+      <c r="B70" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I26:J29"/>
+    <mergeCell ref="I28:J31"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1391,572 +1501,572 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
-        <v>38</v>
+      <c r="B2" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
-        <v>39</v>
+      <c r="B4" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
-        <v>40</v>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>41</v>
+      <c r="B7" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
-        <v>42</v>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
-        <v>43</v>
+      <c r="B9" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="s">
-        <v>44</v>
+      <c r="B10" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3" t="s">
-        <v>79</v>
+      <c r="B50" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3" t="s">
-        <v>80</v>
+      <c r="B51" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3" t="s">
-        <v>81</v>
+      <c r="B52" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3" t="s">
-        <v>82</v>
+      <c r="B53" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3" t="s">
-        <v>83</v>
+      <c r="B54" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="3" t="s">
-        <v>81</v>
+      <c r="B55" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="3" t="s">
-        <v>84</v>
+      <c r="B56" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="3" t="s">
-        <v>85</v>
+      <c r="B57" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="3" t="s">
-        <v>81</v>
+      <c r="B58" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="3" t="s">
-        <v>87</v>
+      <c r="B61" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="3" t="s">
-        <v>88</v>
+      <c r="B62" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="3" t="s">
-        <v>89</v>
+      <c r="B63" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3" t="s">
-        <v>90</v>
+      <c r="B64" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3" t="s">
-        <v>91</v>
+      <c r="B65" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="3" t="s">
-        <v>92</v>
+      <c r="B66" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3" t="s">
-        <v>93</v>
+      <c r="B67" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="3" t="s">
-        <v>94</v>
+      <c r="B68" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="3" t="s">
-        <v>95</v>
+      <c r="B69" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3" t="s">
-        <v>93</v>
+      <c r="B70" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3" t="s">
-        <v>96</v>
+      <c r="B71" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="3" t="s">
-        <v>100</v>
+      <c r="B81" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="3" t="s">
-        <v>102</v>
+      <c r="B82" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="3" t="s">
-        <v>103</v>
+      <c r="B83" s="4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="3" t="s">
-        <v>100</v>
+      <c r="B84" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="3" t="s">
-        <v>104</v>
+      <c r="B85" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="3" t="s">
-        <v>100</v>
+      <c r="B86" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="3" t="s">
-        <v>105</v>
+      <c r="B87" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="3" t="s">
-        <v>106</v>
+      <c r="B88" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="3" t="s">
-        <v>107</v>
+      <c r="B89" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="3" t="s">
-        <v>108</v>
+      <c r="B90" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="3" t="s">
-        <v>109</v>
+      <c r="B91" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="3" t="s">
-        <v>110</v>
+      <c r="B92" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="3" t="s">
-        <v>111</v>
+      <c r="B94" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="7"/>
-      <c r="C95" s="3" t="s">
-        <v>112</v>
+      <c r="B95" s="8"/>
+      <c r="C95" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="7"/>
-      <c r="C96" s="3" t="s">
-        <v>113</v>
+      <c r="B96" s="8"/>
+      <c r="C96" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="7"/>
-      <c r="C97" s="3" t="s">
-        <v>114</v>
+      <c r="B97" s="8"/>
+      <c r="C97" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="7"/>
-      <c r="C98" s="3" t="s">
-        <v>115</v>
+      <c r="B98" s="8"/>
+      <c r="C98" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="7"/>
-      <c r="C99" s="3" t="s">
-        <v>116</v>
+      <c r="B99" s="8"/>
+      <c r="C99" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="7"/>
-      <c r="C100" s="3" t="s">
-        <v>117</v>
+      <c r="B100" s="8"/>
+      <c r="C100" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="7"/>
-      <c r="C101" s="3" t="s">
-        <v>118</v>
+      <c r="B101" s="8"/>
+      <c r="C101" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="7"/>
-      <c r="C102" s="3" t="s">
-        <v>119</v>
+      <c r="B102" s="8"/>
+      <c r="C102" s="4" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="7"/>
-      <c r="C103" s="3" t="s">
-        <v>120</v>
+      <c r="B103" s="8"/>
+      <c r="C103" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="7"/>
-      <c r="C104" s="3" t="s">
-        <v>121</v>
+      <c r="B104" s="8"/>
+      <c r="C104" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="7"/>
-      <c r="C105" s="3" t="s">
-        <v>122</v>
+      <c r="B105" s="8"/>
+      <c r="C105" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="7"/>
-      <c r="C106" s="3" t="s">
-        <v>123</v>
+      <c r="B106" s="8"/>
+      <c r="C106" s="4" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="7"/>
-      <c r="C107" s="3" t="s">
-        <v>124</v>
+      <c r="B107" s="8"/>
+      <c r="C107" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="7"/>
-      <c r="C108" s="3" t="s">
-        <v>125</v>
+      <c r="B108" s="8"/>
+      <c r="C108" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="7"/>
-      <c r="C109" s="3" t="s">
-        <v>126</v>
+      <c r="B109" s="8"/>
+      <c r="C109" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="7"/>
-      <c r="C110" s="3" t="s">
-        <v>127</v>
+      <c r="B110" s="8"/>
+      <c r="C110" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="7"/>
-      <c r="C111" s="3" t="s">
-        <v>128</v>
+      <c r="B111" s="8"/>
+      <c r="C111" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="7"/>
-      <c r="C112" s="3" t="s">
-        <v>129</v>
+      <c r="B112" s="8"/>
+      <c r="C112" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="7"/>
-      <c r="C113" s="3" t="s">
-        <v>130</v>
+      <c r="B113" s="8"/>
+      <c r="C113" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="7"/>
-      <c r="C114" s="3" t="s">
-        <v>131</v>
+      <c r="B114" s="8"/>
+      <c r="C114" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="4" t="s">
-        <v>14</v>
+      <c r="B116" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1997,190 +2107,190 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="s">
-        <v>132</v>
+      <c r="B2" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="3" t="s">
-        <v>133</v>
+      <c r="B4" s="4" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
-        <v>40</v>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="s">
-        <v>134</v>
+      <c r="B7" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="s">
-        <v>135</v>
+      <c r="B8" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
-        <v>136</v>
+      <c r="B9" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="3" t="s">
-        <v>137</v>
+      <c r="B10" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="3" t="s">
-        <v>138</v>
+      <c r="B11" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
-        <v>139</v>
+      <c r="B12" s="4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3" t="s">
-        <v>140</v>
+      <c r="B13" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3" t="s">
-        <v>141</v>
+      <c r="B14" s="4" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="s">
-        <v>142</v>
+      <c r="B16" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
-        <v>143</v>
+      <c r="B18" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3" t="s">
-        <v>40</v>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
-        <v>144</v>
+      <c r="B21" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="3" t="s">
-        <v>145</v>
+      <c r="B22" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="3" t="s">
-        <v>146</v>
+      <c r="B23" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="3" t="s">
-        <v>147</v>
+      <c r="B24" s="4" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="3" t="s">
-        <v>148</v>
+      <c r="B25" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="s">
-        <v>149</v>
+      <c r="B26" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="3" t="s">
-        <v>150</v>
+      <c r="B27" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="3" t="s">
-        <v>151</v>
+      <c r="B28" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="3" t="s">
-        <v>152</v>
+      <c r="B29" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="3" t="s">
-        <v>153</v>
+      <c r="B30" s="4" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="s">
-        <v>154</v>
+      <c r="B31" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
-        <v>155</v>
+      <c r="B32" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="s">
-        <v>156</v>
+      <c r="B33" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="s">
-        <v>157</v>
+      <c r="B34" s="4" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
-        <v>158</v>
+      <c r="B36" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="s">
-        <v>159</v>
+      <c r="B38" s="4" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="8"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="s">
-        <v>40</v>
+      <c r="B40" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="s">
-        <v>160</v>
+      <c r="B41" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="s">
-        <v>161</v>
+      <c r="B42" s="4" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="s">
-        <v>162</v>
+      <c r="B43" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="s">
-        <v>163</v>
+      <c r="B44" s="4" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="s">
-        <v>164</v>
+      <c r="B45" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Callback" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -532,15 +533,40 @@
   </si>
   <si>
     <t xml:space="preserve">mode: one of {auto, min, max}. In min mode, training will stop when the quantity monitored has stopped decreasing; in maxmode it will stop when the quantity monitored has stopped increasing; in auto mode, the direction is automatically inferred from the name of the monitored quantity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Epoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg F-1 (micro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trial per settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other than patience, everything was set to default</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -632,7 +658,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -673,6 +699,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -695,10 +725,10 @@
       <xdr:rowOff>9360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>569160</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>537840</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -712,44 +742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2412720" y="171720"/>
-          <a:ext cx="2356920" cy="1399680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>582120</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Image 2" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5400360" y="206640"/>
-          <a:ext cx="2982600" cy="216000"/>
+          <a:ext cx="2925720" cy="1399320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -769,24 +762,24 @@
       <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>474840</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 3" descr=""/>
+        <xdr:cNvPr id="1" name="Image 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5436360" y="1989720"/>
-          <a:ext cx="3113640" cy="225720"/>
+          <a:ext cx="4039560" cy="225360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,104 +793,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>53640</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>365040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>573120</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 6" descr=""/>
+        <xdr:cNvPr id="2" name="Image 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9054720" y="253800"/>
-          <a:ext cx="1511280" cy="590040"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>392040</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9063720" y="852840"/>
-          <a:ext cx="1529280" cy="760680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>136080</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 13" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3600360" y="2442600"/>
-          <a:ext cx="3736440" cy="385560"/>
+          <a:off x="4854240" y="2460960"/>
+          <a:ext cx="4719960" cy="385200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -917,24 +836,24 @@
       <xdr:rowOff>43560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>555840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Image 4" descr=""/>
+        <xdr:cNvPr id="3" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2444760" y="3132000"/>
-          <a:ext cx="4305240" cy="575640"/>
+          <a:ext cx="5311800" cy="575280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -949,29 +868,29 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>232560</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>537840</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 8" descr=""/>
+        <xdr:cNvPr id="4" name="Image 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2435760" y="6531120"/>
-          <a:ext cx="1699560" cy="1084320"/>
+          <a:off x="2632680" y="6540120"/>
+          <a:ext cx="2105640" cy="1083960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -986,29 +905,29 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>44640</xdr:colOff>
+      <xdr:colOff>170280</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>529200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 9" descr=""/>
+        <xdr:cNvPr id="5" name="Image 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2444760" y="7810560"/>
-          <a:ext cx="1887120" cy="2084400"/>
+          <a:off x="2570400" y="7819560"/>
+          <a:ext cx="2159280" cy="2084040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1029,23 +948,23 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>140400</xdr:colOff>
+      <xdr:colOff>555840</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 5" descr=""/>
+        <xdr:cNvPr id="6" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2400120" y="10136160"/>
-          <a:ext cx="3140640" cy="342360"/>
+          <a:ext cx="3556080" cy="342000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1060,29 +979,29 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>233280</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>526320</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>537840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Image 10" descr=""/>
+        <xdr:cNvPr id="7" name="Image 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2436120" y="4258440"/>
-          <a:ext cx="1690560" cy="833760"/>
+          <a:off x="2633400" y="4267800"/>
+          <a:ext cx="2104920" cy="833400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1102,24 +1021,24 @@
       <xdr:rowOff>15840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>122760</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>116280</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 11" descr=""/>
+        <xdr:cNvPr id="8" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6313320" y="4242240"/>
-          <a:ext cx="2810520" cy="886680"/>
+          <a:ext cx="3404160" cy="886320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1134,29 +1053,29 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>358560</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Image 12" descr=""/>
+        <xdr:cNvPr id="9" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3027240" y="11233080"/>
-          <a:ext cx="1708200" cy="765000"/>
+          <a:off x="3358800" y="11242080"/>
+          <a:ext cx="2050920" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,20 +1089,131 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>107280</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Image 14" descr=""/>
+        <xdr:cNvPr id="10" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13908960" y="198360"/>
+          <a:ext cx="4728960" cy="3181680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>-360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519480</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6600240" y="206640"/>
+          <a:ext cx="3520440" cy="215640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542880</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 6" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11070000" y="208800"/>
+          <a:ext cx="2074320" cy="589680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>534240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1192,8 +1222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12108600" y="198360"/>
-          <a:ext cx="4729320" cy="3182040"/>
+          <a:off x="11106000" y="825840"/>
+          <a:ext cx="2029680" cy="760320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,15 +1243,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:T72"/>
+  <dimension ref="B2:W72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T6" activeCellId="0" sqref="T6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,21 +1261,21 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="W2" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="W3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1253,10 +1283,10 @@
       <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="W4" s="0" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1479,7 +1509,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1495,13 +1525,13 @@
   </sheetPr>
   <dimension ref="B2:C116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2086,7 +2116,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2101,13 +2131,13 @@
   </sheetPr>
   <dimension ref="B2:B45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2301,7 +2331,121 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:I14"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.912884715701617</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.913561448772716</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.914294576266407</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.912433560320884</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -5,13 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Callback" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="DropoutGRU" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="DropoutEmb" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -557,6 +559,18 @@
   </si>
   <si>
     <t xml:space="preserve">Other than patience, everything was set to default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dropout rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rate 0 until 0.6 numbers are gotten from logEDo.txt, the collected data are below</t>
   </si>
 </sst>
 </file>
@@ -726,9 +740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537480</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -741,8 +755,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2412720" y="171720"/>
-          <a:ext cx="2925720" cy="1399320"/>
+          <a:off x="2374560" y="171720"/>
+          <a:ext cx="2887200" cy="1398960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -763,9 +777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
+      <xdr:colOff>474480</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -778,8 +792,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5436360" y="1989720"/>
-          <a:ext cx="4039560" cy="225360"/>
+          <a:off x="5350680" y="1989720"/>
+          <a:ext cx="3981960" cy="225000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -800,9 +814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>573120</xdr:colOff>
+      <xdr:colOff>572760</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -815,8 +829,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4854240" y="2460960"/>
-          <a:ext cx="4719960" cy="385200"/>
+          <a:off x="4777920" y="2460960"/>
+          <a:ext cx="4653000" cy="384840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,9 +851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -852,8 +866,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2444760" y="3132000"/>
-          <a:ext cx="5311800" cy="575280"/>
+          <a:off x="2406600" y="3132000"/>
+          <a:ext cx="5235480" cy="574920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,9 +888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537480</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -889,8 +903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2632680" y="6540120"/>
-          <a:ext cx="2105640" cy="1083960"/>
+          <a:off x="2594520" y="6540120"/>
+          <a:ext cx="2076480" cy="1083600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,9 +925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>529200</xdr:colOff>
+      <xdr:colOff>528840</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -926,8 +940,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2570400" y="7819560"/>
-          <a:ext cx="2159280" cy="2084040"/>
+          <a:off x="2532240" y="7819560"/>
+          <a:ext cx="2130120" cy="2083680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -948,9 +962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -963,8 +977,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400120" y="10136160"/>
-          <a:ext cx="3556080" cy="342000"/>
+          <a:off x="2361960" y="10136160"/>
+          <a:ext cx="3508200" cy="341640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,9 +999,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>537840</xdr:colOff>
+      <xdr:colOff>537480</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1000,8 +1014,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2633400" y="4267800"/>
-          <a:ext cx="2104920" cy="833400"/>
+          <a:off x="2595240" y="4267800"/>
+          <a:ext cx="2075760" cy="833040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,9 +1036,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>116280</xdr:colOff>
+      <xdr:colOff>115920</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1037,8 +1051,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6313320" y="4242240"/>
-          <a:ext cx="3404160" cy="886320"/>
+          <a:off x="6218280" y="4242240"/>
+          <a:ext cx="3346200" cy="885960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,9 +1073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1074,8 +1088,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3358800" y="11242080"/>
-          <a:ext cx="2050920" cy="764640"/>
+          <a:off x="3311280" y="11242080"/>
+          <a:ext cx="2012400" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,9 +1110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1111,8 +1125,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13908960" y="198360"/>
-          <a:ext cx="4728960" cy="3181680"/>
+          <a:off x="13689720" y="198360"/>
+          <a:ext cx="4652280" cy="3181320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,9 +1147,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>519480</xdr:colOff>
+      <xdr:colOff>519120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>97200</xdr:rowOff>
+      <xdr:rowOff>96840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1148,8 +1162,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600240" y="206640"/>
-          <a:ext cx="3520440" cy="215640"/>
+          <a:off x="6495480" y="206640"/>
+          <a:ext cx="3472200" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,9 +1184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>542880</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1185,8 +1199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11070000" y="208800"/>
-          <a:ext cx="2074320" cy="589680"/>
+          <a:off x="10898640" y="208800"/>
+          <a:ext cx="2045160" cy="589320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1207,9 +1221,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1222,8 +1236,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11106000" y="825840"/>
-          <a:ext cx="2029680" cy="760320"/>
+          <a:off x="10934640" y="825840"/>
+          <a:ext cx="2000520" cy="759960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,13 +1259,13 @@
   </sheetPr>
   <dimension ref="B2:W72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,7 +1523,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1525,13 +1539,13 @@
   </sheetPr>
   <dimension ref="B2:C116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2116,7 +2130,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2131,13 +2145,13 @@
   </sheetPr>
   <dimension ref="B2:B45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2331,7 +2345,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2346,13 +2360,13 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2445,7 +2459,505 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.910121388994628</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.91413949160428</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.914900816309267</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.915154591210929</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.915662141014254</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>0.916296578268409</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0.915323774478704</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>0.911305671869052</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>0.908048893964387</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0.885462927716449</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:F31"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.911094192784</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.9115171509535</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.9111787844185</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.9129552087295</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.914097195787</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D8" s="10" t="n">
+        <v>0.9124476589265</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" s="10" t="n">
+        <v>0.9125322505605</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D10" s="10" t="n">
+        <v>0.909740726642135</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" s="10" t="n">
+        <v>0.905680328215539</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" s="10" t="n">
+        <v>0.89096138391913</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0.911136488601</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.911051896967</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0.910375163896</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>0.912659138011</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0.911390263503</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0.910967305334</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0.913420462716</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0.912489954743</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0.913420462716</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0.914773928858</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0.911897813306</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0.912997504547</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0.912743729645</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.912320771476</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Callback" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="DropoutGRU" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="DropoutEmb" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -571,6 +572,12 @@
   </si>
   <si>
     <t xml:space="preserve">Rate 0 until 0.6 numbers are gotten from logEDo.txt, the collected data are below</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trim length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg F-1 (Micro)</t>
   </si>
 </sst>
 </file>
@@ -740,9 +747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>537480</xdr:colOff>
+      <xdr:colOff>537120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -756,7 +763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2374560" y="171720"/>
-          <a:ext cx="2887200" cy="1398960"/>
+          <a:ext cx="2886840" cy="1398600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,9 +784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>474480</xdr:colOff>
+      <xdr:colOff>474120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,7 +800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5350680" y="1989720"/>
-          <a:ext cx="3981960" cy="225000"/>
+          <a:ext cx="3981600" cy="224640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -814,9 +821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>572760</xdr:colOff>
+      <xdr:colOff>572400</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -830,7 +837,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4777920" y="2460960"/>
-          <a:ext cx="4653000" cy="384840"/>
+          <a:ext cx="4652640" cy="384480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,9 +858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>555480</xdr:colOff>
+      <xdr:colOff>555120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -867,7 +874,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2406600" y="3132000"/>
-          <a:ext cx="5235480" cy="574920"/>
+          <a:ext cx="5235120" cy="574560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -888,9 +895,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>537480</xdr:colOff>
+      <xdr:colOff>537120</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>146160</xdr:rowOff>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -904,7 +911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2594520" y="6540120"/>
-          <a:ext cx="2076480" cy="1083600"/>
+          <a:ext cx="2076120" cy="1083240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,9 +932,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>528840</xdr:colOff>
+      <xdr:colOff>528480</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>149760</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -941,7 +948,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2532240" y="7819560"/>
-          <a:ext cx="2130120" cy="2083680"/>
+          <a:ext cx="2129760" cy="2083320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,9 +969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>555480</xdr:colOff>
+      <xdr:colOff>555120</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -978,7 +985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2361960" y="10136160"/>
-          <a:ext cx="3508200" cy="341640"/>
+          <a:ext cx="3507840" cy="341280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -999,9 +1006,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>537480</xdr:colOff>
+      <xdr:colOff>537120</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>61560</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1015,7 +1022,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2595240" y="4267800"/>
-          <a:ext cx="2075760" cy="833040"/>
+          <a:ext cx="2075400" cy="832680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1036,9 +1043,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>115920</xdr:colOff>
+      <xdr:colOff>115560</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1052,7 +1059,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6218280" y="4242240"/>
-          <a:ext cx="3346200" cy="885960"/>
+          <a:ext cx="3345840" cy="885600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1073,9 +1080,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1089,7 +1096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3311280" y="11242080"/>
-          <a:ext cx="2012400" cy="764280"/>
+          <a:ext cx="2012040" cy="763920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,9 +1117,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1126,7 +1133,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13689720" y="198360"/>
-          <a:ext cx="4652280" cy="3181320"/>
+          <a:ext cx="4651920" cy="3180960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1147,9 +1154,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>519120</xdr:colOff>
+      <xdr:colOff>518760</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1163,7 +1170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6495480" y="206640"/>
-          <a:ext cx="3472200" cy="215280"/>
+          <a:ext cx="3471840" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1184,9 +1191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>542160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1200,7 +1207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10898640" y="208800"/>
-          <a:ext cx="2045160" cy="589320"/>
+          <a:ext cx="2044800" cy="588960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1221,9 +1228,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
+      <xdr:colOff>533520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1237,7 +1244,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10934640" y="825840"/>
-          <a:ext cx="2000520" cy="759960"/>
+          <a:ext cx="2000160" cy="759600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1259,13 +1266,13 @@
   </sheetPr>
   <dimension ref="B2:W72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,7 +1530,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1539,13 +1546,13 @@
   </sheetPr>
   <dimension ref="B2:C116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,7 +2137,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2145,13 +2152,13 @@
   </sheetPr>
   <dimension ref="B2:B45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,7 +2352,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2360,13 +2367,13 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2459,7 +2466,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2474,13 +2481,13 @@
   </sheetPr>
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2631,7 +2638,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2646,13 +2653,13 @@
   </sheetPr>
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2957,7 +2964,102 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.913435683927487</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.913622671927368</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="n">
+        <v>188</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.913561448772716</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,7 +14,9 @@
     <sheet name="Callback" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="DropoutGRU" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="DropoutEmb" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Trimlen" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="EmbXMod" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="TraXMod" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -578,16 +580,59 @@
   </si>
   <si>
     <t xml:space="preserve">Avg F-1 (Micro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Embedding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polyglot.vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rang_fasttext.vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rang_word2vec.vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wiki.id.vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WE_w.vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Trainable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dukun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no trainable training hit max epoch=30 for model 1 &amp; 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="@"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -679,7 +724,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,6 +769,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -747,9 +800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>537120</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -762,8 +815,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2374560" y="171720"/>
-          <a:ext cx="2886840" cy="1398600"/>
+          <a:off x="2336400" y="171720"/>
+          <a:ext cx="2848320" cy="1398240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -784,9 +837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>474120</xdr:colOff>
+      <xdr:colOff>473760</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -799,8 +852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5350680" y="1989720"/>
-          <a:ext cx="3981600" cy="224640"/>
+          <a:off x="5265000" y="1989720"/>
+          <a:ext cx="3924000" cy="224280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -821,9 +874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
+      <xdr:colOff>572040</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>82080</xdr:rowOff>
+      <xdr:rowOff>81720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -836,8 +889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4777920" y="2460960"/>
-          <a:ext cx="4652640" cy="384480"/>
+          <a:off x="4701600" y="2460960"/>
+          <a:ext cx="4585680" cy="384120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,9 +911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>555120</xdr:colOff>
+      <xdr:colOff>554760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -873,8 +926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2406600" y="3132000"/>
-          <a:ext cx="5235120" cy="574560"/>
+          <a:off x="2368440" y="3132000"/>
+          <a:ext cx="5158440" cy="574200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,9 +948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>537120</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -910,8 +963,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2594520" y="6540120"/>
-          <a:ext cx="2076120" cy="1083240"/>
+          <a:off x="2556360" y="6540120"/>
+          <a:ext cx="2047320" cy="1082880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -932,9 +985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>528480</xdr:colOff>
+      <xdr:colOff>528120</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -947,8 +1000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2532240" y="7819560"/>
-          <a:ext cx="2129760" cy="2083320"/>
+          <a:off x="2494080" y="7819560"/>
+          <a:ext cx="2100960" cy="2082960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,9 +1022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>555120</xdr:colOff>
+      <xdr:colOff>554760</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -984,8 +1037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2361960" y="10136160"/>
-          <a:ext cx="3507840" cy="341280"/>
+          <a:off x="2323800" y="10136160"/>
+          <a:ext cx="3459960" cy="340920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1006,9 +1059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>537120</xdr:colOff>
+      <xdr:colOff>536760</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1021,8 +1074,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2595240" y="4267800"/>
-          <a:ext cx="2075400" cy="832680"/>
+          <a:off x="2557080" y="4267800"/>
+          <a:ext cx="2046600" cy="832320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,9 +1096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>115560</xdr:colOff>
+      <xdr:colOff>115200</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1058,8 +1111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6218280" y="4242240"/>
-          <a:ext cx="3345840" cy="885600"/>
+          <a:off x="6122880" y="4242240"/>
+          <a:ext cx="3288600" cy="885240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1080,9 +1133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1095,8 +1148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3311280" y="11242080"/>
-          <a:ext cx="2012040" cy="763920"/>
+          <a:off x="3263400" y="11242080"/>
+          <a:ext cx="1973880" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,9 +1170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>34920</xdr:colOff>
+      <xdr:colOff>34560</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1132,8 +1185,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13689720" y="198360"/>
-          <a:ext cx="4651920" cy="3180960"/>
+          <a:off x="13470840" y="198360"/>
+          <a:ext cx="4575240" cy="3180600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1154,9 +1207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>518760</xdr:colOff>
+      <xdr:colOff>518400</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>96480</xdr:rowOff>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1169,8 +1222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6495480" y="206640"/>
-          <a:ext cx="3471840" cy="214920"/>
+          <a:off x="6390720" y="206640"/>
+          <a:ext cx="3423960" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1191,9 +1244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>542160</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1206,8 +1259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10898640" y="208800"/>
-          <a:ext cx="2044800" cy="588960"/>
+          <a:off x="10727280" y="208800"/>
+          <a:ext cx="2016000" cy="588600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,9 +1281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>533520</xdr:colOff>
+      <xdr:colOff>533160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1243,8 +1296,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10934640" y="825840"/>
-          <a:ext cx="2000160" cy="759600"/>
+          <a:off x="10763280" y="825840"/>
+          <a:ext cx="1971360" cy="759240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1266,13 +1319,13 @@
   </sheetPr>
   <dimension ref="B2:W72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1530,7 +1583,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1546,13 +1599,13 @@
   </sheetPr>
   <dimension ref="B2:C116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2137,7 +2190,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2152,13 +2205,13 @@
   </sheetPr>
   <dimension ref="B2:B45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.37"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2352,7 +2405,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2367,14 +2420,11 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -2466,7 +2516,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2481,13 +2531,13 @@
   </sheetPr>
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2638,7 +2688,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2653,13 +2703,13 @@
   </sheetPr>
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,7 +3014,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2979,13 +3029,13 @@
   </sheetPr>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3059,7 +3109,423 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:L30"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.911136488601</v>
+      </c>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.880849767098</v>
+      </c>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>0.878673109573</v>
+      </c>
+      <c r="L18" s="12"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>0.882309464806</v>
+      </c>
+      <c r="L19" s="12"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0.867344711685</v>
+      </c>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0.89133178183</v>
+      </c>
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0.889819961835228</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.899029287314362</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.893304571475981</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.914435562322886</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.877367115058117</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.876061120543294</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.870487581299926</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:F10"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.88753542274669</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.851145022421277</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.897601827179292</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,6 +17,7 @@
     <sheet name="Trimlen" sheetId="7" state="visible" r:id="rId8"/>
     <sheet name="EmbXMod" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TraXMod" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="LossXEpoch" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="202">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -622,17 +623,30 @@
   </si>
   <si>
     <t xml:space="preserve">no trainable training hit max epoch=30 for model 1 &amp; 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loss:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val_loss:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val_acc:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
     <numFmt numFmtId="167" formatCode="@"/>
+    <numFmt numFmtId="168" formatCode="#,##0"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -724,7 +738,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -769,11 +783,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -800,9 +818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>536760</xdr:colOff>
+      <xdr:colOff>536400</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -816,7 +834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2336400" y="171720"/>
-          <a:ext cx="2848320" cy="1398240"/>
+          <a:ext cx="2847960" cy="1397880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,9 +855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>473760</xdr:colOff>
+      <xdr:colOff>473400</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -853,7 +871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5265000" y="1989720"/>
-          <a:ext cx="3924000" cy="224280"/>
+          <a:ext cx="3923640" cy="223920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -874,9 +892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>572040</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>81720</xdr:rowOff>
+      <xdr:rowOff>81360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -890,7 +908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4701600" y="2460960"/>
-          <a:ext cx="4585680" cy="384120"/>
+          <a:ext cx="4585320" cy="383760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -911,9 +929,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>554760</xdr:colOff>
+      <xdr:colOff>554400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -927,7 +945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2368440" y="3132000"/>
-          <a:ext cx="5158440" cy="574200"/>
+          <a:ext cx="5158080" cy="573840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -948,9 +966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>536760</xdr:colOff>
+      <xdr:colOff>536400</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -964,7 +982,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2556360" y="6540120"/>
-          <a:ext cx="2047320" cy="1082880"/>
+          <a:ext cx="2046960" cy="1082520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -985,9 +1003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>528120</xdr:colOff>
+      <xdr:colOff>527760</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1001,7 +1019,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2494080" y="7819560"/>
-          <a:ext cx="2100960" cy="2082960"/>
+          <a:ext cx="2100600" cy="2082600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1022,9 +1040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>554760</xdr:colOff>
+      <xdr:colOff>554400</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1038,7 +1056,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2323800" y="10136160"/>
-          <a:ext cx="3459960" cy="340920"/>
+          <a:ext cx="3459600" cy="340560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1059,9 +1077,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>536760</xdr:colOff>
+      <xdr:colOff>536400</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1075,7 +1093,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2557080" y="4267800"/>
-          <a:ext cx="2046600" cy="832320"/>
+          <a:ext cx="2046240" cy="831960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1096,9 +1114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>115200</xdr:colOff>
+      <xdr:colOff>114840</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1112,7 +1130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6122880" y="4242240"/>
-          <a:ext cx="3288600" cy="885240"/>
+          <a:ext cx="3288240" cy="884880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1133,9 +1151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1149,7 +1167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3263400" y="11242080"/>
-          <a:ext cx="1973880" cy="763560"/>
+          <a:ext cx="1973520" cy="763200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1170,9 +1188,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
+      <xdr:colOff>34200</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1186,7 +1204,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13470840" y="198360"/>
-          <a:ext cx="4575240" cy="3180600"/>
+          <a:ext cx="4574880" cy="3180240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1207,9 +1225,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>518400</xdr:colOff>
+      <xdr:colOff>518040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1223,7 +1241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6390720" y="206640"/>
-          <a:ext cx="3423960" cy="214560"/>
+          <a:ext cx="3423600" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,9 +1262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1260,7 +1278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10727280" y="208800"/>
-          <a:ext cx="2016000" cy="588600"/>
+          <a:ext cx="2015640" cy="588240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1281,9 +1299,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1297,7 +1315,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10763280" y="825840"/>
-          <a:ext cx="1971360" cy="759240"/>
+          <a:ext cx="1971000" cy="758880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1319,13 +1337,13 @@
   </sheetPr>
   <dimension ref="B2:W72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,12 +1601,311 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:F17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0.8138</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.7624</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.3422</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0.8982</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.3762</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0.9126</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.3169</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.9056</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.2554</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.2848</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0.9145</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.2458</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.2635</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0.9211</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>0.9249</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.2474</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0.9251</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0.9288</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0.9289</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.2314</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0.9291</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0.9319</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.2303</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0.2108</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0.9353</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.2275</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0.9319</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0.2015</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0.9383</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.2302</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0.1897</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0.9414</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.2268</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0.9327</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.1814</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.9439</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.2286</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.9316</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.1702</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.9466</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.2346</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.9305</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.1645</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.9476</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.2365</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.9317</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.1535</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.9521</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.2381</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>0.9312</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1599,13 +1916,13 @@
   </sheetPr>
   <dimension ref="B2:C116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2507,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2205,13 +2522,13 @@
   </sheetPr>
   <dimension ref="B2:B45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,7 +2722,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2420,11 +2737,14 @@
   </sheetPr>
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
@@ -2516,7 +2836,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2531,13 +2851,13 @@
   </sheetPr>
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2688,7 +3008,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2703,13 +3023,13 @@
   </sheetPr>
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3014,7 +3334,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3029,13 +3349,13 @@
   </sheetPr>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,7 +3429,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3124,13 +3444,13 @@
   </sheetPr>
   <dimension ref="B1:L30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,7 +3730,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3425,13 +3745,13 @@
   </sheetPr>
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,7 +3845,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,6 +18,7 @@
     <sheet name="EmbXMod" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="TraXMod" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="LossXEpoch" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Optimizer" sheetId="11" state="visible" r:id="rId12"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="227">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -610,6 +611,24 @@
     <t xml:space="preserve">WE_w.vec</t>
   </si>
   <si>
+    <t xml:space="preserve">Dukun &amp; HPC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first trial was run at dukun, second one was run at hpc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not Trainable</t>
   </si>
   <si>
@@ -635,6 +654,63 @@
   </si>
   <si>
     <t xml:space="preserve">val_acc:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rmsprop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F-1 (Micro)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nesterov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient clipping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adagrad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time/epoch for every optimizer is the same, around 320s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.SGD object at 0x7fbc5f11d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.SGD object at 0x7ff58001d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.SGD object at 0x7f9cc5b1d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.SGD object at 0x7fb0e25dd9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.RMSprop object at 0x7f968781d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.RMSprop object at 0x7f471a41d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.RMSprop object at 0x7fab7d75d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.RMSprop object at 0x7fe03bb5d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.RMSprop object at 0x7f3bac11d9d0&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;keras.optimizers.RMSprop object at 0x7f99781dd9d0&gt;</t>
   </si>
 </sst>
 </file>
@@ -696,12 +772,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -738,7 +820,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -783,6 +865,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -818,9 +908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>536400</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -833,8 +923,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2336400" y="171720"/>
-          <a:ext cx="2847960" cy="1397880"/>
+          <a:off x="2412720" y="171720"/>
+          <a:ext cx="2923560" cy="1397160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -855,9 +945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>472680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>99720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -870,8 +960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5265000" y="1989720"/>
-          <a:ext cx="3923640" cy="223920"/>
+          <a:off x="5436360" y="1989720"/>
+          <a:ext cx="4037400" cy="223200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,9 +982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>570960</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,8 +997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4701600" y="2460960"/>
-          <a:ext cx="4585320" cy="383760"/>
+          <a:off x="4854240" y="2460960"/>
+          <a:ext cx="4717800" cy="383040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,9 +1019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>554400</xdr:colOff>
+      <xdr:colOff>553680</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -944,8 +1034,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2368440" y="3132000"/>
-          <a:ext cx="5158080" cy="573840"/>
+          <a:off x="2444760" y="3132000"/>
+          <a:ext cx="5309640" cy="573120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,9 +1056,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>536400</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -981,8 +1071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2556360" y="6540120"/>
-          <a:ext cx="2046960" cy="1082520"/>
+          <a:off x="2632680" y="6540120"/>
+          <a:ext cx="2103480" cy="1081800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,9 +1093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>527760</xdr:colOff>
+      <xdr:colOff>527040</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1018,8 +1108,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2494080" y="7819560"/>
-          <a:ext cx="2100600" cy="2082600"/>
+          <a:off x="2570400" y="7819560"/>
+          <a:ext cx="2157120" cy="2081880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1040,9 +1130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>554400</xdr:colOff>
+      <xdr:colOff>553680</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1055,8 +1145,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2323800" y="10136160"/>
-          <a:ext cx="3459600" cy="340560"/>
+          <a:off x="2400120" y="10136160"/>
+          <a:ext cx="3553920" cy="339840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,9 +1167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>536400</xdr:colOff>
+      <xdr:colOff>535680</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1092,8 +1182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2557080" y="4267800"/>
-          <a:ext cx="2046240" cy="831960"/>
+          <a:off x="2633400" y="4267800"/>
+          <a:ext cx="2102760" cy="831240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1114,9 +1204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>114840</xdr:colOff>
+      <xdr:colOff>114120</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1129,8 +1219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6122880" y="4242240"/>
-          <a:ext cx="3288240" cy="884880"/>
+          <a:off x="6313320" y="4242240"/>
+          <a:ext cx="3402000" cy="884160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,9 +1241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1166,8 +1256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263400" y="11242080"/>
-          <a:ext cx="1973520" cy="763200"/>
+          <a:off x="3358800" y="11242080"/>
+          <a:ext cx="2048760" cy="762480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1188,9 +1278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1203,8 +1293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13470840" y="198360"/>
-          <a:ext cx="4574880" cy="3180240"/>
+          <a:off x="13908960" y="198360"/>
+          <a:ext cx="4726800" cy="3179520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1225,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1240,8 +1330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6390720" y="206640"/>
-          <a:ext cx="3423600" cy="214200"/>
+          <a:off x="6600240" y="206640"/>
+          <a:ext cx="3518280" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1262,9 +1352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>541440</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>146880</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1277,8 +1367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10727280" y="208800"/>
-          <a:ext cx="2015640" cy="588240"/>
+          <a:off x="11070000" y="208800"/>
+          <a:ext cx="2072160" cy="587520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1299,9 +1389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>532800</xdr:colOff>
+      <xdr:colOff>532080</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1314,8 +1404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10763280" y="825840"/>
-          <a:ext cx="1971000" cy="758880"/>
+          <a:off x="11106000" y="825840"/>
+          <a:ext cx="2027520" cy="758160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,13 +1427,13 @@
   </sheetPr>
   <dimension ref="B2:W72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1359,7 +1449,7 @@
       <c r="R2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1367,7 +1457,7 @@
       <c r="R3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1378,7 +1468,7 @@
       <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1601,7 +1691,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1615,293 +1705,787 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F17"/>
+  <dimension ref="B1:F17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>201</v>
+      <c r="C2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0.8138</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.7624</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>0.3422</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>0.8982</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13" t="n">
+      <c r="B4" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0.3762</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0.886</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <v>0.281</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="1" t="n">
         <v>0.9126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13" t="n">
+      <c r="B5" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0.3169</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.9056</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5" s="1" t="n">
         <v>0.2554</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="1" t="n">
         <v>0.921</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13" t="n">
+      <c r="B6" s="15" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0.2848</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0.9145</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6" s="1" t="n">
         <v>0.2458</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="1" t="n">
         <v>0.925</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13" t="n">
+      <c r="B7" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0.2635</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <v>0.9211</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7" s="1" t="n">
         <v>0.247</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="1" t="n">
         <v>0.9249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="n">
+      <c r="B8" s="15" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0.2474</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>0.9251</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8" s="1" t="n">
         <v>0.234</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="1" t="n">
         <v>0.9288</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13" t="n">
+      <c r="B9" s="15" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0.235</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0.9289</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9" s="1" t="n">
         <v>0.2314</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="1" t="n">
         <v>0.9291</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13" t="n">
+      <c r="B10" s="15" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>0.223</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10" s="1" t="n">
         <v>0.9319</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.2303</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="1" t="n">
         <v>0.93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13" t="n">
+      <c r="B11" s="15" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>0.2108</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <v>0.9353</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.2275</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="1" t="n">
         <v>0.9319</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13" t="n">
+      <c r="B12" s="15" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>0.2015</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <v>0.9383</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.2302</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="1" t="n">
         <v>0.931</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13" t="n">
+      <c r="B13" s="15" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>0.1897</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>0.9414</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13" s="1" t="n">
         <v>0.2268</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="1" t="n">
         <v>0.9327</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13" t="n">
+      <c r="B14" s="15" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0.1814</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <v>0.9439</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="1" t="n">
         <v>0.2286</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="1" t="n">
         <v>0.9316</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13" t="n">
+      <c r="B15" s="15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0.1702</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0.9466</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="1" t="n">
         <v>0.2346</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="1" t="n">
         <v>0.9305</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13" t="n">
+      <c r="B16" s="15" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0.1645</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>0.9476</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="1" t="n">
         <v>0.2365</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="1" t="n">
         <v>0.9317</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13" t="n">
+      <c r="B17" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0.1535</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0.9521</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17" s="1" t="n">
         <v>0.2381</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="1" t="n">
         <v>0.9312</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:M29"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="F1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
+      <c r="J1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.914773928858436</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="H3" s="10" t="n">
+        <v>0.913462758533181</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="10" t="n">
+        <v>0.785940870447913</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.916719536437846</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0.913561448772716</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="10" t="n">
+        <v>0.778581398299708</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.913561448772716</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.912363067292645</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="10" t="n">
+        <v>0.780527005879118</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.785940870447913</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0.913420462716237</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>0.779004356469145</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="D8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.91595821173286</v>
+      </c>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.913589645984012</v>
+      </c>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0.916465761536184</v>
+      </c>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0.916973311339509</v>
+      </c>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0.785940870447913</v>
+      </c>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0.778581398299708</v>
+      </c>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0.780527005879118</v>
+      </c>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0.779004356469145</v>
+      </c>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0.914012604153449</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <f aca="false">AVERAGE(C24:C25)</f>
+        <v>19</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">AVERAGE(D24:D25)</f>
+        <v>0.913462758533181</v>
+      </c>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0.912912912912913</v>
+      </c>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0.912743729645138</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <f aca="false">AVERAGE(C26:C27)</f>
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">AVERAGE(D26:D27)</f>
+        <v>0.912363067292645</v>
+      </c>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0.911982404940152</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0.913843420885674</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <f aca="false">AVERAGE(C28:C29)</f>
+        <v>4</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">AVERAGE(D28:D29)</f>
+        <v>0.913420462716237</v>
+      </c>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0.9129975045468</v>
+      </c>
+      <c r="E29" s="0"/>
+      <c r="F29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1916,13 +2500,13 @@
   </sheetPr>
   <dimension ref="B2:C116"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2507,7 +3091,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2522,13 +3106,13 @@
   </sheetPr>
   <dimension ref="B2:B45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.23"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2722,7 +3306,7 @@
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2735,67 +3319,76 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:I14"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.36734693877551"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0"/>
+      <c r="C1" s="0"/>
+      <c r="D1" s="0"/>
+      <c r="I1" s="0"/>
+    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
+      <c r="I2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>8.3</v>
       </c>
       <c r="D3" s="10" t="n">
         <v>0.912884715701617</v>
       </c>
+      <c r="I3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>10</v>
       </c>
       <c r="D4" s="10" t="n">
         <v>0.913561448772716</v>
       </c>
+      <c r="I4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="11" t="n">
         <v>12.6</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="12" t="n">
         <v>0.914294576266407</v>
       </c>
       <c r="I5" s="10"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>13.3</v>
       </c>
       <c r="D6" s="10" t="n">
@@ -2804,39 +3397,55 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+      <c r="D7" s="0"/>
       <c r="I7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="D8" s="0"/>
       <c r="I8" s="10"/>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="D9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0"/>
+      <c r="D10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
+      <c r="D11" s="0"/>
+    </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -2851,31 +3460,31 @@
   </sheetPr>
   <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>12</v>
       </c>
       <c r="D3" s="10" t="n">
@@ -2883,10 +3492,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>10.5</v>
       </c>
       <c r="D4" s="10" t="n">
@@ -2894,10 +3503,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>16</v>
       </c>
       <c r="D5" s="10" t="n">
@@ -2905,10 +3514,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>13</v>
       </c>
       <c r="D6" s="10" t="n">
@@ -2916,10 +3525,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>0.4</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>14.5</v>
       </c>
       <c r="D7" s="10" t="n">
@@ -2927,21 +3536,21 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="11" t="n">
         <v>0.5</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="12" t="n">
         <v>0.916296578268409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D9" s="10" t="n">
@@ -2949,10 +3558,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>16</v>
       </c>
       <c r="D10" s="10" t="n">
@@ -2960,10 +3569,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>18.5</v>
       </c>
       <c r="D11" s="10" t="n">
@@ -2971,10 +3580,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>19.5</v>
       </c>
       <c r="D12" s="10" t="n">
@@ -2982,33 +3591,33 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3023,31 +3632,31 @@
   </sheetPr>
   <dimension ref="B2:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>7</v>
       </c>
       <c r="D3" s="10" t="n">
@@ -3055,10 +3664,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>0.1</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>7.5</v>
       </c>
       <c r="D4" s="10" t="n">
@@ -3066,10 +3675,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>0.2</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>9</v>
       </c>
       <c r="D5" s="10" t="n">
@@ -3077,10 +3686,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>9.5</v>
       </c>
       <c r="D6" s="10" t="n">
@@ -3088,21 +3697,21 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="11" t="n">
         <v>0.4</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="11" t="n">
         <v>9.5</v>
       </c>
-      <c r="D7" s="10" t="n">
+      <c r="D7" s="12" t="n">
         <v>0.914097195787</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>8.5</v>
       </c>
       <c r="D8" s="10" t="n">
@@ -3110,10 +3719,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>14</v>
       </c>
       <c r="D9" s="10" t="n">
@@ -3121,10 +3730,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>0.7</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>12.5</v>
       </c>
       <c r="D10" s="10" t="n">
@@ -3132,10 +3741,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>0.8</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>16</v>
       </c>
       <c r="D11" s="10" t="n">
@@ -3143,10 +3752,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>20</v>
       </c>
       <c r="D12" s="10" t="n">
@@ -3154,187 +3763,187 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="1" t="n">
         <v>0.911136488601</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="1" t="n">
         <v>0.911051896967</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="1" t="n">
         <v>0.910375163896</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="1" t="n">
         <v>0.912659138011</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="1" t="n">
         <v>0.911390263503</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="1" t="n">
         <v>0.910967305334</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="1" t="n">
         <v>0.913420462716</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="1" t="n">
         <v>0.912489954743</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="1" t="n">
         <v>0.913420462716</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="F27" s="1" t="n">
         <v>0.914773928858</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="E28" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="F28" s="1" t="n">
         <v>0.911897813306</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="1" t="n">
         <v>0.912997504547</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="F30" s="1" t="n">
         <v>0.912743729645</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="1" t="n">
         <v>0.912320771476</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3349,31 +3958,31 @@
   </sheetPr>
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.34"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D3" s="10" t="n">
@@ -3381,10 +3990,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>11</v>
       </c>
       <c r="D4" s="10" t="n">
@@ -3392,44 +4001,44 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="11" t="n">
         <v>188</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="12" t="n">
         <v>0.913561448772716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>180</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3442,285 +4051,963 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:L30"/>
+  <dimension ref="B1:AD30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="0"/>
+      <c r="C1" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>183</v>
       </c>
+      <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="C3" s="0" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.910967305333364</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0.891447024242802</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H3" s="12" t="n">
+        <v>0.91413949160428</v>
+      </c>
+      <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D4" s="10" t="n">
+        <v>0.881241565452269</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0.892037132960759</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>0.877367115058117</v>
+      </c>
+      <c r="L4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="C5" s="0" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D5" s="10" t="n">
+        <v>0.878194244917535</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0.898531485937111</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>0.87697531670367</v>
+      </c>
+      <c r="L5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>191</v>
       </c>
+      <c r="C6" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="n">
+        <v>0.881266031911717</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>0.879440024346767</v>
+      </c>
+      <c r="L6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>192</v>
       </c>
+      <c r="C7" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" s="10" t="n">
+        <v>0.867213758784575</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0.89280677009873</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>0.871666157405387</v>
+      </c>
+      <c r="L7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="L8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0"/>
+      <c r="C9" s="0"/>
+      <c r="D9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="L9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="G10" s="0"/>
+      <c r="L10" s="0"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="0"/>
+      <c r="L11" s="0"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" s="0"/>
+      <c r="L12" s="0"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="L13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="L14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L15" s="12"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="n">
         <v>0.911136488601</v>
       </c>
-      <c r="L16" s="12"/>
+      <c r="H16" s="0" t="n">
+        <v>0.910798122065728</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <f aca="false">AVERAGE(D16:E16)</f>
+        <v>16.5</v>
+      </c>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0" t="n">
+        <f aca="false">AVERAGE(G16:H16)</f>
+        <v>0.910967305333364</v>
+      </c>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+      <c r="Z16" s="0"/>
+      <c r="AA16" s="0"/>
+      <c r="AB16" s="0"/>
+      <c r="AC16" s="0"/>
+      <c r="AD16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="E17" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="n">
         <v>0.880849767098</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="H17" s="0" t="n">
+        <v>0.881633363806539</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <f aca="false">AVERAGE(D17:E17)</f>
+        <v>17.5</v>
+      </c>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0" t="n">
+        <f aca="false">AVERAGE(G17:H17)</f>
+        <v>0.881241565452269</v>
+      </c>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
+      <c r="AB17" s="0"/>
+      <c r="AC17" s="0"/>
+      <c r="AD17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="E18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="n">
         <v>0.878673109573</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="H18" s="0" t="n">
+        <v>0.87771538026207</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <f aca="false">AVERAGE(D18:E18)</f>
+        <v>17.5</v>
+      </c>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0" t="n">
+        <f aca="false">AVERAGE(G18:H18)</f>
+        <v>0.878194244917535</v>
+      </c>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+      <c r="Z18" s="0"/>
+      <c r="AA18" s="0"/>
+      <c r="AB18" s="0"/>
+      <c r="AC18" s="0"/>
+      <c r="AD18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="E19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="n">
         <v>0.882309464806</v>
       </c>
-      <c r="L19" s="12"/>
+      <c r="H19" s="0" t="n">
+        <v>0.880222599017434</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <f aca="false">AVERAGE(D19:E19)</f>
+        <v>8</v>
+      </c>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0" t="n">
+        <f aca="false">AVERAGE(G19:H19)</f>
+        <v>0.881266031911717</v>
+      </c>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
+      <c r="AB19" s="0"/>
+      <c r="AC19" s="0"/>
+      <c r="AD19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="E20" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>0.867344711685</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="H20" s="0" t="n">
+        <v>0.86708280588415</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <f aca="false">AVERAGE(D20:E20)</f>
+        <v>13</v>
+      </c>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0" t="n">
+        <f aca="false">AVERAGE(G20:H20)</f>
+        <v>0.867213758784575</v>
+      </c>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+      <c r="T20" s="0"/>
+      <c r="U20" s="0"/>
+      <c r="V20" s="0"/>
+      <c r="W20" s="0"/>
+      <c r="X20" s="0"/>
+      <c r="Y20" s="0"/>
+      <c r="Z20" s="0"/>
+      <c r="AA20" s="0"/>
+      <c r="AB20" s="0"/>
+      <c r="AC20" s="0"/>
+      <c r="AD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="E21" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G21" s="1" t="n">
         <v>0.89133178183</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="H21" s="0" t="n">
+        <v>0.891562266655604</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <f aca="false">AVERAGE(D21:E21)</f>
+        <v>22.5</v>
+      </c>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0" t="n">
+        <f aca="false">AVERAGE(G21:H21)</f>
+        <v>0.891447024242802</v>
+      </c>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+      <c r="T21" s="0"/>
+      <c r="U21" s="0"/>
+      <c r="V21" s="0"/>
+      <c r="W21" s="0"/>
+      <c r="X21" s="0"/>
+      <c r="Y21" s="0"/>
+      <c r="Z21" s="0"/>
+      <c r="AA21" s="0"/>
+      <c r="AB21" s="0"/>
+      <c r="AC21" s="0"/>
+      <c r="AD21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="E22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="n">
         <v>0.889819961835228</v>
       </c>
+      <c r="H22" s="0" t="n">
+        <v>0.894254304086289</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <f aca="false">AVERAGE(D22:E22)</f>
+        <v>14</v>
+      </c>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0" t="n">
+        <f aca="false">AVERAGE(G22:H22)</f>
+        <v>0.892037132960759</v>
+      </c>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+      <c r="T22" s="0"/>
+      <c r="U22" s="0"/>
+      <c r="V22" s="0"/>
+      <c r="W22" s="0"/>
+      <c r="X22" s="0"/>
+      <c r="Y22" s="0"/>
+      <c r="Z22" s="0"/>
+      <c r="AA22" s="0"/>
+      <c r="AB22" s="0"/>
+      <c r="AC22" s="0"/>
+      <c r="AD22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="E23" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="n">
         <v>0.899029287314362</v>
       </c>
+      <c r="H23" s="0" t="n">
+        <v>0.898033684559861</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <f aca="false">AVERAGE(D23:E23)</f>
+        <v>14</v>
+      </c>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0" t="n">
+        <f aca="false">AVERAGE(G23:H23)</f>
+        <v>0.898531485937111</v>
+      </c>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+      <c r="T23" s="0"/>
+      <c r="U23" s="0"/>
+      <c r="V23" s="0"/>
+      <c r="W23" s="0"/>
+      <c r="X23" s="0"/>
+      <c r="Y23" s="0"/>
+      <c r="Z23" s="0"/>
+      <c r="AA23" s="0"/>
+      <c r="AB23" s="0"/>
+      <c r="AC23" s="0"/>
+      <c r="AD23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <f aca="false">AVERAGE(D24:E24)</f>
+        <v>2</v>
+      </c>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0" t="n">
+        <f aca="false">AVERAGE(G24:H24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+      <c r="T24" s="0"/>
+      <c r="U24" s="0"/>
+      <c r="V24" s="0"/>
+      <c r="W24" s="0"/>
+      <c r="X24" s="0"/>
+      <c r="Y24" s="0"/>
+      <c r="Z24" s="0"/>
+      <c r="AA24" s="0"/>
+      <c r="AB24" s="0"/>
+      <c r="AC24" s="0"/>
+      <c r="AD24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="n">
         <v>0.893304571475981</v>
       </c>
+      <c r="H25" s="0" t="n">
+        <v>0.89230896872148</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <f aca="false">AVERAGE(D25:E25)</f>
+        <v>9.5</v>
+      </c>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0" t="n">
+        <f aca="false">AVERAGE(G25:H25)</f>
+        <v>0.89280677009873</v>
+      </c>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+      <c r="T25" s="0"/>
+      <c r="U25" s="0"/>
+      <c r="V25" s="0"/>
+      <c r="W25" s="0"/>
+      <c r="X25" s="0"/>
+      <c r="Y25" s="0"/>
+      <c r="Z25" s="0"/>
+      <c r="AA25" s="0"/>
+      <c r="AB25" s="0"/>
+      <c r="AC25" s="0"/>
+      <c r="AD25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="E26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" s="1" t="n">
         <v>0.914435562322886</v>
       </c>
+      <c r="H26" s="0" t="n">
+        <v>0.913843420885674</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <f aca="false">AVERAGE(D26:E26)</f>
+        <v>11.5</v>
+      </c>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0" t="n">
+        <f aca="false">AVERAGE(G26:H26)</f>
+        <v>0.91413949160428</v>
+      </c>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+      <c r="T26" s="0"/>
+      <c r="U26" s="0"/>
+      <c r="V26" s="0"/>
+      <c r="W26" s="0"/>
+      <c r="X26" s="0"/>
+      <c r="Y26" s="0"/>
+      <c r="Z26" s="0"/>
+      <c r="AA26" s="0"/>
+      <c r="AB26" s="0"/>
+      <c r="AC26" s="0"/>
+      <c r="AD26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="E27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" s="1" t="n">
         <v>0.877367115058117</v>
       </c>
+      <c r="H27" s="0" t="n">
+        <v>0.877367115058117</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <f aca="false">AVERAGE(D27:E27)</f>
+        <v>11</v>
+      </c>
+      <c r="J27" s="0"/>
+      <c r="K27" s="0"/>
+      <c r="L27" s="0" t="n">
+        <f aca="false">AVERAGE(G27:H27)</f>
+        <v>0.877367115058117</v>
+      </c>
+      <c r="M27" s="0"/>
+      <c r="N27" s="0"/>
+      <c r="O27" s="0"/>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
+      <c r="R27" s="0"/>
+      <c r="S27" s="0"/>
+      <c r="T27" s="0"/>
+      <c r="U27" s="0"/>
+      <c r="V27" s="0"/>
+      <c r="W27" s="0"/>
+      <c r="X27" s="0"/>
+      <c r="Y27" s="0"/>
+      <c r="Z27" s="0"/>
+      <c r="AA27" s="0"/>
+      <c r="AB27" s="0"/>
+      <c r="AC27" s="0"/>
+      <c r="AD27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="E28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G28" s="1" t="n">
         <v>0.876061120543294</v>
       </c>
+      <c r="H28" s="0" t="n">
+        <v>0.877889512864046</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <f aca="false">AVERAGE(D28:E28)</f>
+        <v>9</v>
+      </c>
+      <c r="J28" s="0"/>
+      <c r="K28" s="0"/>
+      <c r="L28" s="0" t="n">
+        <f aca="false">AVERAGE(G28:H28)</f>
+        <v>0.87697531670367</v>
+      </c>
+      <c r="M28" s="0"/>
+      <c r="N28" s="0"/>
+      <c r="O28" s="0"/>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
+      <c r="R28" s="0"/>
+      <c r="S28" s="0"/>
+      <c r="T28" s="0"/>
+      <c r="U28" s="0"/>
+      <c r="V28" s="0"/>
+      <c r="W28" s="0"/>
+      <c r="X28" s="0"/>
+      <c r="Y28" s="0"/>
+      <c r="Z28" s="0"/>
+      <c r="AA28" s="0"/>
+      <c r="AB28" s="0"/>
+      <c r="AC28" s="0"/>
+      <c r="AD28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="D29" s="0"/>
+      <c r="E29" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0" t="n">
+        <v>0.879440024346767</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <f aca="false">AVERAGE(D29:E29)</f>
+        <v>6</v>
+      </c>
+      <c r="J29" s="0"/>
+      <c r="K29" s="0"/>
+      <c r="L29" s="0" t="n">
+        <f aca="false">AVERAGE(G29:H29)</f>
+        <v>0.879440024346767</v>
+      </c>
+      <c r="M29" s="0"/>
+      <c r="N29" s="0"/>
+      <c r="O29" s="0"/>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
+      <c r="R29" s="0"/>
+      <c r="S29" s="0"/>
+      <c r="T29" s="0"/>
+      <c r="U29" s="0"/>
+      <c r="V29" s="0"/>
+      <c r="W29" s="0"/>
+      <c r="X29" s="0"/>
+      <c r="Y29" s="0"/>
+      <c r="Z29" s="0"/>
+      <c r="AA29" s="0"/>
+      <c r="AB29" s="0"/>
+      <c r="AC29" s="0"/>
+      <c r="AD29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="E30" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="n">
         <v>0.870487581299926</v>
       </c>
+      <c r="H30" s="0" t="n">
+        <v>0.872844733510847</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <f aca="false">AVERAGE(D30:E30)</f>
+        <v>6.5</v>
+      </c>
+      <c r="J30" s="0"/>
+      <c r="K30" s="0"/>
+      <c r="L30" s="0" t="n">
+        <f aca="false">AVERAGE(G30:H30)</f>
+        <v>0.871666157405387</v>
+      </c>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
+      <c r="O30" s="0"/>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
+      <c r="R30" s="0"/>
+      <c r="S30" s="0"/>
+      <c r="T30" s="0"/>
+      <c r="U30" s="0"/>
+      <c r="V30" s="0"/>
+      <c r="W30" s="0"/>
+      <c r="X30" s="0"/>
+      <c r="Y30" s="0"/>
+      <c r="Z30" s="0"/>
+      <c r="AA30" s="0"/>
+      <c r="AB30" s="0"/>
+      <c r="AC30" s="0"/>
+      <c r="AD30" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3730,7 +5017,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -3743,99 +5030,137 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.0714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F1" s="11"/>
+      <c r="B1" s="0"/>
+      <c r="C1" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>27.5</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="10" t="n">
         <v>0.88753542274669</v>
       </c>
+      <c r="E3" s="1" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>0.910967305333364</v>
+      </c>
+      <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="10" t="n">
         <v>0.851145022421277</v>
       </c>
+      <c r="E4" s="1" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>0.891447024242802</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>16.5</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="10" t="n">
         <v>0.897601827179292</v>
       </c>
+      <c r="E5" s="1" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0.91413949160428</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>196</v>
-      </c>
+      <c r="D8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>197</v>
+      <c r="D10" s="1" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3845,7 +5170,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -21,7 +21,12 @@
     <sheet name="Optimizer" sheetId="11" state="visible" r:id="rId12"/>
     <sheet name="Loss" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Merge" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Sheet14" sheetId="14" state="visible" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet14!$B$4:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet14!$B$4:$F$100</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="250">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -797,7 +802,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -854,6 +859,11 @@
       <sz val="9"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -1062,7 +1072,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1187,8 +1197,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="61892266"/>
-        <c:axId val="71363028"/>
+        <c:axId val="83398034"/>
+        <c:axId val="79184663"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1270,11 +1280,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="78452860"/>
-        <c:axId val="86088685"/>
+        <c:axId val="48104155"/>
+        <c:axId val="4962609"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="61892266"/>
+        <c:axId val="83398034"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1310,14 +1320,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71363028"/>
+        <c:crossAx val="79184663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71363028"/>
+        <c:axId val="79184663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1360,12 +1370,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61892266"/>
+        <c:crossAx val="83398034"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="78452860"/>
+        <c:axId val="48104155"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1401,14 +1411,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86088685"/>
+        <c:crossAx val="4962609"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86088685"/>
+        <c:axId val="4962609"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1441,7 +1451,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78452860"/>
+        <c:crossAx val="48104155"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1479,7 +1489,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1640,8 +1650,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="92475051"/>
-        <c:axId val="24374691"/>
+        <c:axId val="27410763"/>
+        <c:axId val="89461514"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1759,11 +1769,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="17504364"/>
-        <c:axId val="72409131"/>
+        <c:axId val="30375917"/>
+        <c:axId val="9511296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92475051"/>
+        <c:axId val="27410763"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1799,14 +1809,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24374691"/>
+        <c:crossAx val="89461514"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="24374691"/>
+        <c:axId val="89461514"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,12 +1849,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92475051"/>
+        <c:crossAx val="27410763"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="17504364"/>
+        <c:axId val="30375917"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1880,14 +1890,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72409131"/>
+        <c:crossAx val="9511296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72409131"/>
+        <c:axId val="9511296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +1930,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17504364"/>
+        <c:crossAx val="30375917"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1958,7 +1968,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2119,8 +2129,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
-        <c:axId val="59188854"/>
-        <c:axId val="93655703"/>
+        <c:axId val="68839827"/>
+        <c:axId val="99137977"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2238,11 +2248,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="16569536"/>
-        <c:axId val="10061382"/>
+        <c:axId val="20423001"/>
+        <c:axId val="72552573"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59188854"/>
+        <c:axId val="68839827"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2278,14 +2288,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93655703"/>
+        <c:crossAx val="99137977"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93655703"/>
+        <c:axId val="99137977"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2328,12 +2338,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59188854"/>
+        <c:crossAx val="68839827"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="16569536"/>
+        <c:axId val="20423001"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,14 +2379,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10061382"/>
+        <c:crossAx val="72552573"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10061382"/>
+        <c:axId val="72552573"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2419,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16569536"/>
+        <c:crossAx val="20423001"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2447,7 +2457,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2572,8 +2582,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
-        <c:axId val="89256856"/>
-        <c:axId val="9435909"/>
+        <c:axId val="6897303"/>
+        <c:axId val="4816620"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2655,11 +2665,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="51222490"/>
-        <c:axId val="33638247"/>
+        <c:axId val="39184008"/>
+        <c:axId val="23660143"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89256856"/>
+        <c:axId val="6897303"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,14 +2705,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9435909"/>
+        <c:crossAx val="4816620"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9435909"/>
+        <c:axId val="4816620"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,12 +2755,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89256856"/>
+        <c:crossAx val="6897303"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="51222490"/>
+        <c:axId val="39184008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,14 +2796,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33638247"/>
+        <c:crossAx val="23660143"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33638247"/>
+        <c:axId val="23660143"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -2828,7 +2838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51222490"/>
+        <c:crossAx val="39184008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2866,7 +2876,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3027,8 +3037,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
-        <c:axId val="63638582"/>
-        <c:axId val="12228261"/>
+        <c:axId val="97547291"/>
+        <c:axId val="83834789"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3146,11 +3156,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="36431504"/>
-        <c:axId val="70804033"/>
+        <c:axId val="87272870"/>
+        <c:axId val="99359487"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63638582"/>
+        <c:axId val="97547291"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3186,14 +3196,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12228261"/>
+        <c:crossAx val="83834789"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="12228261"/>
+        <c:axId val="83834789"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3236,12 +3246,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63638582"/>
+        <c:crossAx val="97547291"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="36431504"/>
+        <c:axId val="87272870"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3277,14 +3287,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70804033"/>
+        <c:crossAx val="99359487"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70804033"/>
+        <c:axId val="99359487"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.87"/>
@@ -3318,7 +3328,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36431504"/>
+        <c:crossAx val="87272870"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3367,9 +3377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534240</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3382,8 +3392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2336400" y="171000"/>
-          <a:ext cx="2846520" cy="1391400"/>
+          <a:off x="2412720" y="171000"/>
+          <a:ext cx="2922120" cy="1390680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3404,9 +3414,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>471960</xdr:colOff>
+      <xdr:colOff>471240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3419,8 +3429,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5265000" y="1982160"/>
-          <a:ext cx="3922200" cy="221760"/>
+          <a:off x="5436360" y="1982160"/>
+          <a:ext cx="4035960" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3441,9 +3451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>570240</xdr:colOff>
+      <xdr:colOff>569520</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3456,8 +3466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4701600" y="2451240"/>
-          <a:ext cx="4583880" cy="381240"/>
+          <a:off x="4854240" y="2451240"/>
+          <a:ext cx="4716360" cy="380520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3478,9 +3488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>552960</xdr:colOff>
+      <xdr:colOff>552240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3493,8 +3503,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2368440" y="3120120"/>
-          <a:ext cx="5156640" cy="570240"/>
+          <a:off x="2444760" y="3120120"/>
+          <a:ext cx="5308200" cy="569520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3515,9 +3525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534240</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3530,8 +3540,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2556360" y="6514560"/>
-          <a:ext cx="2045520" cy="1077480"/>
+          <a:off x="2632680" y="6514560"/>
+          <a:ext cx="2102040" cy="1076760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3552,9 +3562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>526320</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3567,8 +3577,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2494080" y="7789320"/>
-          <a:ext cx="2099160" cy="2073240"/>
+          <a:off x="2570400" y="7789320"/>
+          <a:ext cx="2155680" cy="2072520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3589,9 +3599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>552960</xdr:colOff>
+      <xdr:colOff>552240</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3604,8 +3614,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2323800" y="10096920"/>
-          <a:ext cx="3458160" cy="337680"/>
+          <a:off x="2400120" y="10096920"/>
+          <a:ext cx="3552480" cy="336960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3626,9 +3636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534240</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3641,8 +3651,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2557080" y="4251240"/>
-          <a:ext cx="2044800" cy="827280"/>
+          <a:off x="2633400" y="4251240"/>
+          <a:ext cx="2101320" cy="826560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3663,9 +3673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3678,8 +3688,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6122880" y="4225680"/>
-          <a:ext cx="3286800" cy="880200"/>
+          <a:off x="6313320" y="4225680"/>
+          <a:ext cx="3400560" cy="879480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3700,9 +3710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3715,8 +3725,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3263400" y="11198160"/>
-          <a:ext cx="1972080" cy="759240"/>
+          <a:off x="3358800" y="11198160"/>
+          <a:ext cx="2047320" cy="758520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3737,9 +3747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3752,8 +3762,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13470840" y="197640"/>
-          <a:ext cx="4573440" cy="3166560"/>
+          <a:off x="13908960" y="197640"/>
+          <a:ext cx="4725360" cy="3165840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3774,9 +3784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>516600</xdr:colOff>
+      <xdr:colOff>515880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3789,8 +3799,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6390720" y="205920"/>
-          <a:ext cx="3422160" cy="212040"/>
+          <a:off x="6600240" y="205920"/>
+          <a:ext cx="3516840" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3811,9 +3821,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>540000</xdr:colOff>
+      <xdr:colOff>539280</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3826,8 +3836,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10727280" y="208080"/>
-          <a:ext cx="2014200" cy="585000"/>
+          <a:off x="11070000" y="208080"/>
+          <a:ext cx="2070720" cy="584280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3848,9 +3858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3863,8 +3873,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10763280" y="822600"/>
-          <a:ext cx="1969560" cy="754920"/>
+          <a:off x="11106000" y="822600"/>
+          <a:ext cx="2026080" cy="754200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3890,9 +3900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>93960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3900,8 +3910,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4019400" y="199800"/>
-        <a:ext cx="4647600" cy="2742840"/>
+        <a:off x="3886200" y="199800"/>
+        <a:ext cx="4494240" cy="2742120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3925,9 +3935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>89280</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3935,8 +3945,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3147120" y="305280"/>
-        <a:ext cx="4647600" cy="2698560"/>
+        <a:off x="3242520" y="305280"/>
+        <a:ext cx="4799160" cy="2697840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3960,9 +3970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>111240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3970,8 +3980,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3598560" y="236160"/>
-        <a:ext cx="4647600" cy="2698560"/>
+        <a:off x="3713040" y="236160"/>
+        <a:ext cx="4799160" cy="2697840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3995,9 +4005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4005,8 +4015,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4584960" y="1947960"/>
-        <a:ext cx="4727520" cy="2701440"/>
+        <a:off x="4470480" y="1947960"/>
+        <a:ext cx="4612680" cy="2700720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4029,10 +4039,10 @@
       <xdr:rowOff>13680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>757080</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4040,8 +4050,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4839480" y="337320"/>
-        <a:ext cx="4718520" cy="2701440"/>
+        <a:off x="3639240" y="337320"/>
+        <a:ext cx="3717720" cy="2700720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4052,6 +4062,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4067,7 +4081,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,7 +4361,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4653,7 +4667,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5158,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5314,13 +5328,13 @@
   </sheetPr>
   <dimension ref="B2:H98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="G71"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,7 +5376,7 @@
       </c>
       <c r="H3" s="10" t="n">
         <f aca="false">MAX(F3:F98)</f>
-        <v>0.916804128071734</v>
+        <v>0.91756545277672</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6139,7 +6153,7 @@
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">IF(F40=$H$3,"MAX","")</f>
-        <v>MAX</v>
+        <v/>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6244,7 +6258,7 @@
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">IF(F45=$H$3,"MAX","")</f>
-        <v>MAX</v>
+        <v/>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,6 +6397,12 @@
       <c r="D52" s="0" t="s">
         <v>242</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>0.914350970688999</v>
+      </c>
       <c r="G52" s="0" t="str">
         <f aca="false">IF(F52=$H$3,"MAX","")</f>
         <v/>
@@ -6398,6 +6418,12 @@
       <c r="D53" s="0" t="s">
         <v>243</v>
       </c>
+      <c r="E53" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>0.912743729645138</v>
+      </c>
       <c r="G53" s="0" t="str">
         <f aca="false">IF(F53=$H$3,"MAX","")</f>
         <v/>
@@ -6413,6 +6439,12 @@
       <c r="D54" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="E54" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>0.913420462716237</v>
+      </c>
       <c r="G54" s="0" t="str">
         <f aca="false">IF(F54=$H$3,"MAX","")</f>
         <v/>
@@ -6428,6 +6460,12 @@
       <c r="D55" s="0" t="s">
         <v>245</v>
       </c>
+      <c r="E55" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>0.912828321279026</v>
+      </c>
       <c r="G55" s="0" t="str">
         <f aca="false">IF(F55=$H$3,"MAX","")</f>
         <v/>
@@ -6443,6 +6481,12 @@
       <c r="D56" s="0" t="s">
         <v>246</v>
       </c>
+      <c r="E56" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>0.911136488601277</v>
+      </c>
       <c r="G56" s="0" t="str">
         <f aca="false">IF(F56=$H$3,"MAX","")</f>
         <v/>
@@ -6458,6 +6502,12 @@
       <c r="D57" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="E57" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>0.911897813306264</v>
+      </c>
       <c r="G57" s="0" t="str">
         <f aca="false">IF(F57=$H$3,"MAX","")</f>
         <v/>
@@ -6473,6 +6523,12 @@
       <c r="D58" s="0" t="s">
         <v>242</v>
       </c>
+      <c r="E58" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>0.913758829251787</v>
+      </c>
       <c r="G58" s="0" t="str">
         <f aca="false">IF(F58=$H$3,"MAX","")</f>
         <v/>
@@ -6488,6 +6544,12 @@
       <c r="D59" s="0" t="s">
         <v>243</v>
       </c>
+      <c r="E59" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>0.915366070295648</v>
+      </c>
       <c r="G59" s="0" t="str">
         <f aca="false">IF(F59=$H$3,"MAX","")</f>
         <v/>
@@ -6503,6 +6565,12 @@
       <c r="D60" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="E60" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>0.912659138011251</v>
+      </c>
       <c r="G60" s="0" t="str">
         <f aca="false">IF(F60=$H$3,"MAX","")</f>
         <v/>
@@ -6518,6 +6586,12 @@
       <c r="D61" s="0" t="s">
         <v>245</v>
       </c>
+      <c r="E61" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>0.913758829251787</v>
+      </c>
       <c r="G61" s="0" t="str">
         <f aca="false">IF(F61=$H$3,"MAX","")</f>
         <v/>
@@ -6533,6 +6607,12 @@
       <c r="D62" s="0" t="s">
         <v>246</v>
       </c>
+      <c r="E62" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>0.914858520492323</v>
+      </c>
       <c r="G62" s="0" t="str">
         <f aca="false">IF(F62=$H$3,"MAX","")</f>
         <v/>
@@ -6548,6 +6628,12 @@
       <c r="D63" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="E63" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>0.915027703760098</v>
+      </c>
       <c r="G63" s="0" t="str">
         <f aca="false">IF(F63=$H$3,"MAX","")</f>
         <v/>
@@ -6563,6 +6649,12 @@
       <c r="D64" s="0" t="s">
         <v>242</v>
       </c>
+      <c r="E64" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>0.914943112126211</v>
+      </c>
       <c r="G64" s="0" t="str">
         <f aca="false">IF(F64=$H$3,"MAX","")</f>
         <v/>
@@ -6578,6 +6670,12 @@
       <c r="D65" s="0" t="s">
         <v>243</v>
       </c>
+      <c r="E65" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>0.914520153956773</v>
+      </c>
       <c r="G65" s="0" t="str">
         <f aca="false">IF(F65=$H$3,"MAX","")</f>
         <v/>
@@ -6593,6 +6691,12 @@
       <c r="D66" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="E66" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>0.915196887027873</v>
+      </c>
       <c r="G66" s="0" t="str">
         <f aca="false">IF(F66=$H$3,"MAX","")</f>
         <v/>
@@ -6608,6 +6712,12 @@
       <c r="D67" s="0" t="s">
         <v>245</v>
       </c>
+      <c r="E67" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>0.915535253563423</v>
+      </c>
       <c r="G67" s="0" t="str">
         <f aca="false">IF(F67=$H$3,"MAX","")</f>
         <v/>
@@ -6623,6 +6733,12 @@
       <c r="D68" s="0" t="s">
         <v>246</v>
       </c>
+      <c r="E68" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>0.916381169902297</v>
+      </c>
       <c r="G68" s="0" t="str">
         <f aca="false">IF(F68=$H$3,"MAX","")</f>
         <v/>
@@ -6638,6 +6754,12 @@
       <c r="D69" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="E69" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>0.915535253563423</v>
+      </c>
       <c r="G69" s="0" t="str">
         <f aca="false">IF(F69=$H$3,"MAX","")</f>
         <v/>
@@ -6653,6 +6775,12 @@
       <c r="D70" s="0" t="s">
         <v>242</v>
       </c>
+      <c r="E70" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>0.916127395000634</v>
+      </c>
       <c r="G70" s="0" t="str">
         <f aca="false">IF(F70=$H$3,"MAX","")</f>
         <v/>
@@ -6668,9 +6796,15 @@
       <c r="D71" s="0" t="s">
         <v>243</v>
       </c>
+      <c r="E71" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>0.91756545277672</v>
+      </c>
       <c r="G71" s="0" t="str">
         <f aca="false">IF(F71=$H$3,"MAX","")</f>
-        <v/>
+        <v>MAX</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6683,6 +6817,12 @@
       <c r="D72" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="E72" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>0.915704436831198</v>
+      </c>
       <c r="G72" s="0" t="str">
         <f aca="false">IF(F72=$H$3,"MAX","")</f>
         <v/>
@@ -6698,6 +6838,12 @@
       <c r="D73" s="0" t="s">
         <v>245</v>
       </c>
+      <c r="E73" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>0.915704436831198</v>
+      </c>
       <c r="G73" s="0" t="str">
         <f aca="false">IF(F73=$H$3,"MAX","")</f>
         <v/>
@@ -6712,6 +6858,12 @@
       </c>
       <c r="D74" s="0" t="s">
         <v>246</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>0.91561984519731</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">IF(F74=$H$3,"MAX","")</f>
@@ -7230,6 +7382,1564 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:F100"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="10" t="n">
+        <f aca="false">AVERAGE(F5:F28)</f>
+        <v>0.914044326016157</v>
+      </c>
+      <c r="C1" s="10" t="n">
+        <f aca="false">AVERAGE(F29:F52)</f>
+        <v>0.913420462716237</v>
+      </c>
+      <c r="D1" s="10" t="n">
+        <f aca="false">AVERAGE(F53:F76)</f>
+        <v>0.914417939065827</v>
+      </c>
+      <c r="E1" s="10" t="n">
+        <f aca="false">AVERAGE(F77:F100)</f>
+        <v>0.913832846931439</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" s="10" t="n">
+        <v>0.916042803366747</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0.914689337224548</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10" t="n">
+        <v>0.910628938797953</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>0.911728630038489</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="10" t="n">
+        <v>0.914012604153449</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" s="10" t="n">
+        <v>0.914943112126211</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>0.914943112126211</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>0.915789028465085</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F13" s="10" t="n">
+        <v>0.910798122065728</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="n">
+        <v>0.913082096180688</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F15" s="10" t="n">
+        <v>0.914520153956773</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F16" s="10" t="n">
+        <v>0.91528147866176</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F17" s="10" t="n">
+        <v>0.913843420885674</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F18" s="10" t="n">
+        <v>0.914266379055111</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F19" s="10" t="n">
+        <v>0.911221080235165</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F20" s="10" t="n">
+        <v>0.913843420885674</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="F21" s="10" t="n">
+        <v>0.91595821173286</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F22" s="10" t="n">
+        <v>0.914266379055111</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10" t="n">
+        <v>0.915535253563423</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F24" s="10" t="n">
+        <v>0.916550353170071</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F25" s="10" t="n">
+        <v>0.911559446770714</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" s="10" t="n">
+        <v>0.914266379055111</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F27" s="10" t="n">
+        <v>0.914435562322886</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F28" s="10" t="n">
+        <v>0.914858520492323</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" s="10" t="n">
+        <v>0.913420462716237</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>0.916804128071734</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>0.916127395000634</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F55" s="10" t="n">
+        <v>0.911474855136827</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F56" s="10" t="n">
+        <v>0.914181787421224</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F57" s="10" t="n">
+        <v>0.916634944803959</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>0.913589645984012</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F59" s="10" t="n">
+        <v>0.915027703760098</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F60" s="10" t="n">
+        <v>0.916804128071734</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F61" s="10" t="n">
+        <v>0.910375163896291</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" s="10" t="n">
+        <v>0.912912912912913</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F63" s="10" t="n">
+        <v>0.914266379055111</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F64" s="10" t="n">
+        <v>0.913505054350125</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F65" s="10" t="n">
+        <v>0.91561984519731</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F66" s="10" t="n">
+        <v>0.916296578268409</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F67" s="10" t="n">
+        <v>0.91105189696739</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F68" s="10" t="n">
+        <v>0.913928012519562</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="F69" s="10" t="n">
+        <v>0.914350970688999</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F70" s="10" t="n">
+        <v>0.916211986634522</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F71" s="10" t="n">
+        <v>0.915112295393986</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F72" s="10" t="n">
+        <v>0.916127395000634</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F73" s="10" t="n">
+        <v>0.913251279448463</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F74" s="10" t="n">
+        <v>0.914350970688999</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>0.915027703760098</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F76" s="10" t="n">
+        <v>0.9129975045468</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>0.914773928858436</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F78" s="10" t="n">
+        <v>0.914520153956774</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>0.911136488601277</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F80" s="10" t="n">
+        <v>0.913843420885674</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>0.914943112126211</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F82" s="10" t="n">
+        <v>0.914858520492323</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>0.914943112126211</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F84" s="10" t="n">
+        <v>0.916719536437846</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>0.910375163896291</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F86" s="10" t="n">
+        <v>0.913420462716237</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>0.915704436831198</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F88" s="10" t="n">
+        <v>0.914266379055111</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="F89" s="10" t="n">
+        <v>0.916042803366747</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F90" s="10" t="n">
+        <v>0.914604745590661</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>0.911305671869052</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F92" s="10" t="n">
+        <v>0.913928012519562</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F93" s="10" t="n">
+        <v>0.915873620098972</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F94" s="10" t="n">
+        <v>0.914097195787337</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F95" s="10" t="n">
+        <v>0.913166687814575</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F96" s="10" t="n">
+        <v>0.912151588207926</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F97" s="10" t="n">
+        <v>0.911897813306264</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>0.912574546377363</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F99" s="10" t="n">
+        <v>0.914012604153449</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F100" s="10" t="n">
+        <v>0.912828321279026</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:F100"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7246,7 +8956,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7852,7 +9562,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8067,7 +9777,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8205,7 +9915,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8378,7 +10088,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8705,7 +10415,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8800,7 +10510,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8941,7 +10651,7 @@
       </c>
       <c r="M4" s="14" t="n">
         <f aca="false">AVERAGE(F3:F7)</f>
-        <v>0.714964482647881</v>
+        <v>0.71496448264788</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>189</v>
@@ -9614,7 +11324,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Defaults/defaults.xlsx
+++ b/Defaults/defaults.xlsx
@@ -26,6 +26,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet14!$B$4:$F$100</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet14!$B$4:$F$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet14!$B$4:$F$100</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="254">
   <si>
     <t xml:space="preserve">Optimizers</t>
   </si>
@@ -787,6 +788,18 @@
   </si>
   <si>
     <t xml:space="preserve">ave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">add</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1085,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1197,8 +1210,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="83398034"/>
-        <c:axId val="79184663"/>
+        <c:axId val="12712791"/>
+        <c:axId val="87314661"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1280,11 +1293,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="48104155"/>
-        <c:axId val="4962609"/>
+        <c:axId val="86703900"/>
+        <c:axId val="97755862"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83398034"/>
+        <c:axId val="12712791"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,14 +1333,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79184663"/>
+        <c:crossAx val="87314661"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79184663"/>
+        <c:axId val="87314661"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1370,12 +1383,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83398034"/>
+        <c:crossAx val="12712791"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="48104155"/>
+        <c:axId val="86703900"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,14 +1424,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4962609"/>
+        <c:crossAx val="97755862"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4962609"/>
+        <c:axId val="97755862"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1451,7 +1464,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48104155"/>
+        <c:crossAx val="86703900"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1489,7 +1502,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1650,8 +1663,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="27410763"/>
-        <c:axId val="89461514"/>
+        <c:axId val="16027858"/>
+        <c:axId val="23220592"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1769,11 +1782,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="30375917"/>
-        <c:axId val="9511296"/>
+        <c:axId val="24677241"/>
+        <c:axId val="44572663"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="27410763"/>
+        <c:axId val="16027858"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1809,14 +1822,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="89461514"/>
+        <c:crossAx val="23220592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89461514"/>
+        <c:axId val="23220592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1862,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27410763"/>
+        <c:crossAx val="16027858"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="30375917"/>
+        <c:axId val="24677241"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1890,14 +1903,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9511296"/>
+        <c:crossAx val="44572663"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="9511296"/>
+        <c:axId val="44572663"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1943,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30375917"/>
+        <c:crossAx val="24677241"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1968,7 +1981,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2129,8 +2142,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
-        <c:axId val="68839827"/>
-        <c:axId val="99137977"/>
+        <c:axId val="90455489"/>
+        <c:axId val="22816242"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2248,11 +2261,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="20423001"/>
-        <c:axId val="72552573"/>
+        <c:axId val="18701877"/>
+        <c:axId val="7383075"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68839827"/>
+        <c:axId val="90455489"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,14 +2301,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99137977"/>
+        <c:crossAx val="22816242"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99137977"/>
+        <c:axId val="22816242"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,12 +2351,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68839827"/>
+        <c:crossAx val="90455489"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="20423001"/>
+        <c:axId val="18701877"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,14 +2392,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72552573"/>
+        <c:crossAx val="7383075"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72552573"/>
+        <c:axId val="7383075"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2432,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20423001"/>
+        <c:crossAx val="18701877"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2457,7 +2470,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2582,8 +2595,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
-        <c:axId val="6897303"/>
-        <c:axId val="4816620"/>
+        <c:axId val="54974052"/>
+        <c:axId val="92552564"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2665,11 +2678,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="39184008"/>
-        <c:axId val="23660143"/>
+        <c:axId val="6216841"/>
+        <c:axId val="57396515"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="6897303"/>
+        <c:axId val="54974052"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,14 +2718,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4816620"/>
+        <c:crossAx val="92552564"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4816620"/>
+        <c:axId val="92552564"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2755,12 +2768,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6897303"/>
+        <c:crossAx val="54974052"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="39184008"/>
+        <c:axId val="6216841"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,14 +2809,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="23660143"/>
+        <c:crossAx val="57396515"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23660143"/>
+        <c:axId val="57396515"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.92"/>
@@ -2838,7 +2851,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39184008"/>
+        <c:crossAx val="6216841"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2876,7 +2889,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3037,8 +3050,8 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="-27"/>
-        <c:axId val="97547291"/>
-        <c:axId val="83834789"/>
+        <c:axId val="22305023"/>
+        <c:axId val="30613796"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3156,11 +3169,11 @@
         </c:ser>
         <c:gapWidth val="500"/>
         <c:overlap val="0"/>
-        <c:axId val="87272870"/>
-        <c:axId val="99359487"/>
+        <c:axId val="6478141"/>
+        <c:axId val="51930908"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97547291"/>
+        <c:axId val="22305023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,14 +3209,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83834789"/>
+        <c:crossAx val="30613796"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83834789"/>
+        <c:axId val="30613796"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,12 +3259,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="97547291"/>
+        <c:crossAx val="22305023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="87272870"/>
+        <c:axId val="6478141"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,14 +3300,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99359487"/>
+        <c:crossAx val="51930908"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99359487"/>
+        <c:axId val="51930908"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.87"/>
@@ -3328,7 +3341,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87272870"/>
+        <c:crossAx val="6478141"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3377,9 +3390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>104400</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3392,8 +3405,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2412720" y="171000"/>
-          <a:ext cx="2922120" cy="1390680"/>
+          <a:off x="2374560" y="171000"/>
+          <a:ext cx="2883600" cy="1390320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3414,9 +3427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>471240</xdr:colOff>
+      <xdr:colOff>470880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3429,8 +3442,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5436360" y="1982160"/>
-          <a:ext cx="4035960" cy="221040"/>
+          <a:off x="5350680" y="1982160"/>
+          <a:ext cx="3978360" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3451,9 +3464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>569520</xdr:colOff>
+      <xdr:colOff>569160</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3466,8 +3479,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4854240" y="2451240"/>
-          <a:ext cx="4716360" cy="380520"/>
+          <a:off x="4777920" y="2451240"/>
+          <a:ext cx="4649400" cy="380160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3488,9 +3501,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>551880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3503,8 +3516,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2444760" y="3120120"/>
-          <a:ext cx="5308200" cy="569520"/>
+          <a:off x="2406600" y="3120120"/>
+          <a:ext cx="5231880" cy="569160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3525,9 +3538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3540,8 +3553,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2632680" y="6514560"/>
-          <a:ext cx="2102040" cy="1076760"/>
+          <a:off x="2594520" y="6514560"/>
+          <a:ext cx="2072880" cy="1076400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3562,9 +3575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>525600</xdr:colOff>
+      <xdr:colOff>525240</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3577,8 +3590,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2570400" y="7789320"/>
-          <a:ext cx="2155680" cy="2072520"/>
+          <a:off x="2532240" y="7789320"/>
+          <a:ext cx="2126520" cy="2072160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3599,9 +3612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>551880</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3614,8 +3627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2400120" y="10096920"/>
-          <a:ext cx="3552480" cy="336960"/>
+          <a:off x="2361960" y="10096920"/>
+          <a:ext cx="3504600" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3636,9 +3649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3651,8 +3664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2633400" y="4251240"/>
-          <a:ext cx="2101320" cy="826560"/>
+          <a:off x="2595240" y="4251240"/>
+          <a:ext cx="2072160" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3673,9 +3686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>112320</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3688,8 +3701,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6313320" y="4225680"/>
-          <a:ext cx="3400560" cy="879480"/>
+          <a:off x="6218280" y="4225680"/>
+          <a:ext cx="3342600" cy="879120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3710,9 +3723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3725,8 +3738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3358800" y="11198160"/>
-          <a:ext cx="2047320" cy="758520"/>
+          <a:off x="3311280" y="11198160"/>
+          <a:ext cx="2008800" cy="758160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3747,9 +3760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>31680</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3762,8 +3775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13908960" y="197640"/>
-          <a:ext cx="4725360" cy="3165840"/>
+          <a:off x="13689720" y="197640"/>
+          <a:ext cx="4648680" cy="3165480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3784,9 +3797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>515520</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3799,8 +3812,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600240" y="205920"/>
-          <a:ext cx="3516840" cy="211320"/>
+          <a:off x="6495480" y="205920"/>
+          <a:ext cx="3468600" cy="210960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3821,9 +3834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>539280</xdr:colOff>
+      <xdr:colOff>538920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3836,8 +3849,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11070000" y="208080"/>
-          <a:ext cx="2070720" cy="584280"/>
+          <a:off x="10898640" y="208080"/>
+          <a:ext cx="2041560" cy="583920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3858,9 +3871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>530640</xdr:colOff>
+      <xdr:colOff>530280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3873,8 +3886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11106000" y="822600"/>
-          <a:ext cx="2026080" cy="754200"/>
+          <a:off x="10934640" y="822600"/>
+          <a:ext cx="1996920" cy="753840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3900,9 +3913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3910,8 +3923,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3886200" y="199800"/>
-        <a:ext cx="4494240" cy="2742120"/>
+        <a:off x="3819240" y="199800"/>
+        <a:ext cx="4417920" cy="2741760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3935,9 +3948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>240480</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88560</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3945,8 +3958,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3242520" y="305280"/>
-        <a:ext cx="4799160" cy="2697840"/>
+        <a:off x="3195000" y="305280"/>
+        <a:ext cx="4722480" cy="2697480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3970,9 +3983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>111240</xdr:colOff>
+      <xdr:colOff>110880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3980,8 +3993,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3713040" y="236160"/>
-        <a:ext cx="4799160" cy="2697840"/>
+        <a:off x="3655800" y="236160"/>
+        <a:ext cx="4722480" cy="2697480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4005,9 +4018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>167760</xdr:colOff>
+      <xdr:colOff>167400</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4015,8 +4028,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4470480" y="1947960"/>
-        <a:ext cx="4612680" cy="2700720"/>
+        <a:off x="4413240" y="1947960"/>
+        <a:ext cx="4555080" cy="2700360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4040,9 +4053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4050,8 +4063,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3639240" y="337320"/>
-        <a:ext cx="3717720" cy="2700720"/>
+        <a:off x="3582000" y="337320"/>
+        <a:ext cx="3660480" cy="2700360"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4076,12 +4089,12 @@
   <dimension ref="B2:W72"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
+      <selection pane="topLeft" activeCell="L71" activeCellId="1" sqref="B68:F68 L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4356,12 +4369,12 @@
   <dimension ref="B1:F17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="B68:F68 B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4662,12 +4675,12 @@
   <dimension ref="B1:M29"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="topLeft" activeCell="M3" activeCellId="1" sqref="B68:F68 M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.3928571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5153,12 +5166,12 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M13" activeCellId="0" sqref="M13"/>
+      <selection pane="topLeft" activeCell="M13" activeCellId="1" sqref="B68:F68 M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,13 +5341,13 @@
   </sheetPr>
   <dimension ref="B2:H98"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B68" activeCellId="0" sqref="B68:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6240,20 +6253,20 @@
         <v/>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="F45" s="10" t="n">
+      <c r="F45" s="12" t="n">
         <v>0.916804128071734</v>
       </c>
       <c r="G45" s="0" t="str">
@@ -6724,19 +6737,19 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
+      <c r="B68" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="E68" s="0" t="n">
+      <c r="E68" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="F68" s="10" t="n">
+      <c r="F68" s="12" t="n">
         <v>0.916381169902297</v>
       </c>
       <c r="G68" s="0" t="str">
@@ -6787,19 +6800,19 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+      <c r="B71" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E71" s="0" t="n">
+      <c r="E71" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="F71" s="10" t="n">
+      <c r="F71" s="12" t="n">
         <v>0.91756545277672</v>
       </c>
       <c r="G71" s="0" t="str">
@@ -7390,33 +7403,85 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:F100"/>
+  <dimension ref="B1:J100"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G59" activeCellId="0" sqref="G59"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="1" sqref="B68:F68 I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="10" t="n">
         <f aca="false">AVERAGE(F5:F28)</f>
-        <v>0.914044326016157</v>
+        <v>0.914491956745478</v>
       </c>
       <c r="C1" s="10" t="n">
         <f aca="false">AVERAGE(F29:F52)</f>
-        <v>0.913420462716237</v>
+        <v>0.914111294392984</v>
       </c>
       <c r="D1" s="10" t="n">
         <f aca="false">AVERAGE(F53:F76)</f>
-        <v>0.914417939065827</v>
+        <v>0.913935061822385</v>
       </c>
       <c r="E1" s="10" t="n">
         <f aca="false">AVERAGE(F77:F100)</f>
-        <v>0.913832846931439</v>
+        <v>0.914259329752288</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="10" t="n">
+        <f aca="false">AVERAGE(F5:F20)</f>
+        <v>0.914858520492323</v>
+      </c>
+      <c r="C2" s="10" t="n">
+        <f aca="false">AVERAGE(F21:F36)</f>
+        <v>0.913690098549253</v>
+      </c>
+      <c r="D2" s="10" t="n">
+        <f aca="false">AVERAGE(F37:F52)</f>
+        <v>0.914356257666117</v>
+      </c>
+      <c r="E2" s="10" t="n">
+        <f aca="false">AVERAGE(F53:F68)</f>
+        <v>0.914847946538087</v>
+      </c>
+      <c r="F2" s="10" t="n">
+        <f aca="false">AVERAGE(F69:F84)</f>
+        <v>0.912204457979106</v>
+      </c>
+      <c r="G2" s="10" t="n">
+        <f aca="false">AVERAGE(F85:F100)</f>
+        <v>0.915239182844817</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H3" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,53 +7520,53 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>249</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="10" t="n">
-        <v>0.914689337224548</v>
+        <v>0.915535253563423</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>249</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10" t="n">
-        <v>0.910628938797953</v>
+        <v>0.916804128071734</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>249</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="10" t="n">
-        <v>0.911728630038489</v>
+        <v>0.914773928858436</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7509,38 +7574,38 @@
         <v>249</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F9" s="10" t="n">
-        <v>0.914012604153449</v>
+        <v>0.914943112126211</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>0.914943112126211</v>
+        <v>0.915027703760098</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>248</v>
@@ -7549,27 +7614,27 @@
         <v>241</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F11" s="10" t="n">
-        <v>0.914943112126211</v>
+        <v>0.915027703760098</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>14</v>
       </c>
       <c r="F12" s="10" t="n">
-        <v>0.915789028465085</v>
+        <v>0.914943112126211</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7577,67 +7642,67 @@
         <v>249</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10" t="n">
-        <v>0.910798122065728</v>
+        <v>0.913843420885674</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>0.913082096180688</v>
+        <v>0.911897813306264</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>0.914520153956773</v>
+        <v>0.91561984519731</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0.91528147866176</v>
+        <v>0.916042803366747</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7645,7 +7710,7 @@
         <v>249</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D17" s="0" t="s">
         <v>241</v>
@@ -7654,58 +7719,58 @@
         <v>13</v>
       </c>
       <c r="F17" s="10" t="n">
-        <v>0.913843420885674</v>
+        <v>0.915535253563423</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F18" s="10" t="n">
-        <v>0.914266379055111</v>
+        <v>0.913420462716237</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10" t="n">
-        <v>0.911221080235165</v>
+        <v>0.915112295393986</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F20" s="10" t="n">
-        <v>0.913843420885674</v>
+        <v>0.913166687814575</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7713,67 +7778,67 @@
         <v>249</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F21" s="10" t="n">
-        <v>0.91595821173286</v>
+        <v>0.911728630038489</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="D22" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F22" s="10" t="n">
-        <v>0.914266379055111</v>
+        <v>0.915704436831198</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>240</v>
-      </c>
       <c r="D23" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F23" s="10" t="n">
-        <v>0.915535253563423</v>
+        <v>0.914181787421224</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>240</v>
-      </c>
       <c r="D24" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="10" t="n">
-        <v>0.916550353170071</v>
+        <v>0.913843420885674</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7781,78 +7846,84 @@
         <v>249</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.911559446770714</v>
+        <v>0.913082096180688</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>244</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>0.914266379055111</v>
+        <v>0.915196887027873</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>0.914435562322886</v>
+        <v>0.912912912912913</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F28" s="10" t="n">
-        <v>0.914858520492323</v>
+        <v>0.913420462716237</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" s="10" t="n">
+        <v>0.913843420885674</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7860,43 +7931,67 @@
         <v>248</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>0.912659138011251</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F31" s="10" t="n">
+        <v>0.913928012519562</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="E32" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>0.913928012519562</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F33" s="10" t="n">
+        <v>0.914266379055111</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,43 +7999,67 @@
         <v>248</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" s="10" t="n">
+        <v>0.913420462716237</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>241</v>
+        <v>244</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F35" s="10" t="n">
+        <v>0.914350970688999</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" s="10" t="n">
+        <v>0.912574546377363</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F37" s="10" t="n">
+        <v>0.914943112126211</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7948,43 +8067,67 @@
         <v>248</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F38" s="10" t="n">
+        <v>0.91561984519731</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" s="10" t="n">
+        <v>0.913589645984012</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>246</v>
       </c>
+      <c r="E40" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>0.914858520492323</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C41" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F41" s="10" t="n">
+        <v>0.91528147866176</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7992,43 +8135,67 @@
         <v>248</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>0.916381169902297</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C43" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="D43" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F43" s="10" t="n">
+        <v>0.913505054350125</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="C44" s="0" t="s">
-        <v>247</v>
-      </c>
       <c r="D44" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>0.914266379055111</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C45" s="0" t="s">
         <v>247</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F45" s="10" t="n">
+        <v>0.914266379055111</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8041,44 +8208,62 @@
       <c r="D46" s="0" t="s">
         <v>246</v>
       </c>
+      <c r="E46" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>0.914858520492323</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F47" s="10" t="n">
-        <v>0.913420462716237</v>
+        <v>0.916211986634522</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>0.914097195787337</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C49" s="0" t="s">
         <v>240</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>243</v>
+        <v>246</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F49" s="10" t="n">
+        <v>0.914858520492323</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8089,23 +8274,35 @@
         <v>240</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F50" s="10" t="n">
+        <v>0.911136488601277</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C51" s="0" t="s">
         <v>240</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F51" s="10" t="n">
+        <v>0.9129975045468</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>240</v>
@@ -8113,39 +8310,45 @@
       <c r="D52" s="0" t="s">
         <v>246</v>
       </c>
+      <c r="E52" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>0.912828321279026</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>249</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F53" s="10" t="n">
-        <v>0.916804128071734</v>
+        <v>0.914012604153449</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>249</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" s="10" t="n">
-        <v>0.916127395000634</v>
+        <v>0.915704436831198</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8156,64 +8359,64 @@
         <v>249</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E55" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F55" s="10" t="n">
-        <v>0.911474855136827</v>
+        <v>0.916634944803959</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C56" s="0" t="s">
         <v>249</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F56" s="10" t="n">
-        <v>0.914181787421224</v>
+        <v>0.914943112126211</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>245</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F57" s="10" t="n">
-        <v>0.916634944803959</v>
+        <v>0.914520153956773</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" s="10" t="n">
-        <v>0.913589645984012</v>
+        <v>0.915535253563423</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8224,64 +8427,64 @@
         <v>248</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F59" s="10" t="n">
-        <v>0.915027703760098</v>
+        <v>0.914266379055111</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C60" s="0" t="s">
         <v>248</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F60" s="10" t="n">
-        <v>0.916804128071734</v>
+        <v>0.915704436831198</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>248</v>
-      </c>
       <c r="D61" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F61" s="10" t="n">
-        <v>0.910375163896291</v>
+        <v>0.91595821173286</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="0" t="s">
-        <v>248</v>
-      </c>
       <c r="D62" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F62" s="10" t="n">
-        <v>0.912912912912913</v>
+        <v>0.913758829251787</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8289,67 +8492,67 @@
         <v>247</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>245</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F63" s="10" t="n">
-        <v>0.914266379055111</v>
+        <v>0.914350970688999</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>248</v>
-      </c>
       <c r="D64" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F64" s="10" t="n">
-        <v>0.913505054350125</v>
+        <v>0.915873620098972</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="E65" s="0" t="n">
         <v>18</v>
       </c>
       <c r="F65" s="10" t="n">
-        <v>0.91561984519731</v>
+        <v>0.914435562322886</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F66" s="10" t="n">
-        <v>0.916296578268409</v>
+        <v>0.912828321279026</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8357,67 +8560,67 @@
         <v>247</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F67" s="10" t="n">
-        <v>0.91105189696739</v>
+        <v>0.915027703760098</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F68" s="10" t="n">
-        <v>0.913928012519562</v>
+        <v>0.914012604153449</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F69" s="10" t="n">
-        <v>0.914350970688999</v>
+        <v>0.910628938797953</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F70" s="10" t="n">
-        <v>0.916211986634522</v>
+        <v>0.91756545277672</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8425,67 +8628,67 @@
         <v>247</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E71" s="0" t="n">
         <v>16</v>
       </c>
       <c r="F71" s="10" t="n">
-        <v>0.915112295393986</v>
+        <v>0.911474855136827</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F72" s="10" t="n">
-        <v>0.916127395000634</v>
+        <v>0.911136488601277</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>243</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F73" s="10" t="n">
-        <v>0.913251279448463</v>
+        <v>0.910798122065728</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F74" s="10" t="n">
-        <v>0.914350970688999</v>
+        <v>0.914520153956773</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8493,84 +8696,84 @@
         <v>247</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F75" s="10" t="n">
-        <v>0.915027703760098</v>
+        <v>0.910375163896291</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F76" s="10" t="n">
-        <v>0.9129975045468</v>
+        <v>0.910375163896291</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F77" s="10" t="n">
-        <v>0.914773928858436</v>
+        <v>0.911221080235165</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E78" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F78" s="10" t="n">
-        <v>0.914520153956774</v>
+        <v>0.915366070295648</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>243</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F79" s="10" t="n">
-        <v>0.911136488601277</v>
+        <v>0.91105189696739</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8578,67 +8781,67 @@
         <v>240</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F80" s="10" t="n">
-        <v>0.913843420885674</v>
+        <v>0.911305671869052</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="0" t="s">
-        <v>249</v>
-      </c>
       <c r="D81" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F81" s="10" t="n">
-        <v>0.914943112126211</v>
+        <v>0.911559446770714</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C82" s="0" t="s">
-        <v>249</v>
-      </c>
       <c r="D82" s="0" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F82" s="10" t="n">
-        <v>0.914858520492323</v>
+        <v>0.912743729645138</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="C83" s="0" t="s">
-        <v>248</v>
-      </c>
       <c r="D83" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F83" s="10" t="n">
-        <v>0.914943112126211</v>
+        <v>0.913251279448463</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8646,67 +8849,67 @@
         <v>240</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E84" s="0" t="n">
         <v>13</v>
       </c>
       <c r="F84" s="10" t="n">
-        <v>0.916719536437846</v>
+        <v>0.911897813306264</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F85" s="10" t="n">
-        <v>0.910375163896291</v>
+        <v>0.914689337224548</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F86" s="10" t="n">
-        <v>0.913420462716237</v>
+        <v>0.916127395000634</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F87" s="10" t="n">
-        <v>0.915704436831198</v>
+        <v>0.916127395000634</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8714,67 +8917,67 @@
         <v>240</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F88" s="10" t="n">
-        <v>0.914266379055111</v>
+        <v>0.914520153956774</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F89" s="10" t="n">
-        <v>0.916042803366747</v>
+        <v>0.915789028465085</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>242</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F90" s="10" t="n">
-        <v>0.914604745590661</v>
+        <v>0.914943112126211</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F91" s="10" t="n">
-        <v>0.911305671869052</v>
+        <v>0.916804128071734</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8782,67 +8985,67 @@
         <v>240</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F92" s="10" t="n">
-        <v>0.913928012519562</v>
+        <v>0.916719536437846</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C93" s="0" t="s">
         <v>247</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F93" s="10" t="n">
-        <v>0.915873620098972</v>
+        <v>0.914266379055111</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>247</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F94" s="10" t="n">
-        <v>0.914097195787337</v>
+        <v>0.913758829251787</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F95" s="10" t="n">
-        <v>0.913166687814575</v>
+        <v>0.916296578268409</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8850,67 +9053,67 @@
         <v>240</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>242</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F96" s="10" t="n">
-        <v>0.912151588207926</v>
+        <v>0.914604745590661</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C97" s="0" t="s">
         <v>240</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F97" s="10" t="n">
-        <v>0.911897813306264</v>
+        <v>0.916550353170071</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="C98" s="0" t="s">
         <v>240</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F98" s="10" t="n">
-        <v>0.912574546377363</v>
+        <v>0.914350970688999</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="0" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>240</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F99" s="10" t="n">
-        <v>0.914012604153449</v>
+        <v>0.916127395000634</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8921,13 +9124,13 @@
         <v>240</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F100" s="10" t="n">
-        <v>0.912828321279026</v>
+        <v>0.912151588207926</v>
       </c>
     </row>
   </sheetData>
@@ -8951,12 +9154,12 @@
   <dimension ref="B2:C116"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C119" activeCellId="0" sqref="C119"/>
+      <selection pane="topLeft" activeCell="C119" activeCellId="1" sqref="B68:F68 C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9557,12 +9760,12 @@
   <dimension ref="B2:B45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="B36" activeCellId="1" sqref="B68:F68 B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9772,12 +9975,12 @@
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q15" activeCellId="0" sqref="Q15"/>
+      <selection pane="topLeft" activeCell="Q15" activeCellId="1" sqref="B68:F68 Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="7.69387755102041"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9910,12 +10113,12 @@
   <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="P11" activeCellId="1" sqref="B68:F68 P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10083,12 +10286,12 @@
   <dimension ref="B2:F31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="B68:F68 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10410,12 +10613,12 @@
   <dimension ref="B2:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B68:F68 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10505,12 +10708,12 @@
   <dimension ref="B1:Q30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
+      <selection pane="topLeft" activeCell="G24" activeCellId="1" sqref="B68:F68 G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11319,12 +11522,12 @@
   <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="1" sqref="B68:F68 J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
